--- a/정리.xlsx
+++ b/정리.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KDJ\Desktop\algorithm-practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E245A5-9172-4F8F-900C-465914C28A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472655F1-A842-4C3E-89A4-EBFE3CCE284E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="855" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="855" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="1" r:id="rId1"/>
     <sheet name="temp" sheetId="3" r:id="rId2"/>
-    <sheet name="hash" sheetId="23" r:id="rId3"/>
-    <sheet name="커밋컨벤션" sheetId="19" r:id="rId4"/>
+    <sheet name="sort" sheetId="26" r:id="rId3"/>
+    <sheet name="heap" sheetId="25" r:id="rId4"/>
+    <sheet name="stack-queue" sheetId="24" r:id="rId5"/>
+    <sheet name="hash" sheetId="23" r:id="rId6"/>
+    <sheet name="기타 팁" sheetId="27" r:id="rId7"/>
+    <sheet name="커밋컨벤션" sheetId="19" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="228">
   <si>
     <t>NO</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -880,6 +884,683 @@
   </si>
   <si>
     <t>같은 종류의 폰켓몬이 몇 마리 있는지는 중요하지 않고 몇 종류 있는지만 세면 되기에 set구조 이용.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시퀀스 컨테이너</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시퀀스 컨테이너로는 데이터를 선형적으로 보관하는 구조를 말함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector, deque, list등이 있음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector vs deque vs list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector는 가변 길이의 array이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이는 내부적으로 array로 구현되어 있고 이를 필요하다면 붙여서 만들어진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>따라서 끝에서 삽입이 빠르다. 하지만 중간이나 맨앞에서의 삽입은 느리다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deque는 vector의 단점을 보완하기 위해 만들어졌다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마찬가지로 동적으로 확장/축소가 가능한 array들의 모임이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector와 차이점으로 장점은 앞부분에서의 삽입/제거도 효율적이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">그리고 확장을 할 때 vector보다 효율적이다 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단점으로는 메모리가 진짜 연속으로 할당되어 있는 것이 아니기에 포인터 연산이 불가능하다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇다고 iterator의 사용이 불가능한 것은 아니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list는 중간에 어떤 부분에서도 삽입/제거가 빠르도록 만들어진 구조이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이유는 연결을 끊고 넣으면 되기 때문.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 큰 단점으로는 index를 통한 접근이 안되기에 순회하며 원소를 조회해야 한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deque</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 끝에 삽입/제거가 가장 빠름
+- 원소에 대한 접근이 빠름
+- index를 통한 접근 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 끝말고 앞에서도 삽입/제거가 빠름
+- index를 통한 접근이 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 끝이 아닌 곳(맨앞과 중간)에서 
+삽입/제거가 느림
+- 확장시 비용이 큼(시간)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 연속된 공간에 할당되어 있지 않아
+포인터 연산이 불가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 어떤 곳에서도 삽입/제거가 빠름
+- 원소들간 swap이 빠름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- index를 통한 접근이 불가능
+- 순회/탐색이 느림</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 같은 숫자는 싫어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>맨 뒤 숫자를 다음 숫자와 비교해야 하므로 stack구조를 사용하거나 temp로 이전 값을 가지고 있어야 한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 stack구조를 사용하면 맨 앞에서부터 읽어서 답을 출력하는 것이 불편함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>따라서 deque로 개선하여 풀었음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 기능 개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>progresses와 speeds vector는 각각 몇일이 남았는지에 대한 vector를 연산 하도록 준 것.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector와 vector를 순차적으로 접근하여 새로운 컨테이너에 저장해야 한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>앞으로 해야하는 일이 맨 앞부터 꺼내면서 지금숫자보다 작으면 꺼내면서 count를 올리는 일임.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>따라서 들어온 순서대로 연산이 필요하므로 queue구조가 유리함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>queue를 사용하는 대선 deque를 사용했음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack이나 queue는 접근 방향이 제한되어 있고 deque는 내부적으로 array들이 연결되도록 구성되기에 접근 방향이 제한이 없다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>따라서 deque가 더 좋은 것 같아서 이것저것 검색해보니 deque로 stack과 queue가 할 수 있는 모든 일을 할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내부적으로 stack이나 queue가 어떻게 구현되는지 궁금했는데 어떤 컨테이너를 사용할 지 고를 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack&lt;int, vector&lt;int&gt;&gt; myStack;</t>
+  </si>
+  <si>
+    <t>라고 선언하면 vector를 내부 컨테이너로 갖는 stack이 만들어짐.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack과 queue의 컨테이너 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>heap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>힙과 우선순위 큐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>heap는 이진 트리중 하나임.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부모가 자식보다 작은 규칙인경우 min heap, 부모가 자식보다 큰 규칙인경우 max heap이라 함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대와 최소를 찾는 과정이 O(log N)인 것이 강점.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>push와 pop을 할 때 이뤄지는 과정은 이론적 기초이기에 생략하도록 하겠음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>priority queue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>heap을 vector나 array를 이용하여 직접 구현하는 것은 연습용으로는 좋지만 실제 사용하기에는 낭비.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이브러리에 있는 우선순위 큐(prioirty queue)를 사용하자.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이브러리는 queue라이브러리에 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>queue와 마찬가지로 push와 pop이 있는데 함수 이름이 다름.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각각 가장 앞의 원소를 꺼내는 것은 queue.front()와 priority_queue.top()임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>priority queue의 컨테이너와 정렬 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack이나 queue를 만들 때 어떤 컨테이너로 값들을 담을 지 정하면서 선언할 수 있었음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마찬가지로 priority queue에서도 컨테이너를 설정할 수 있음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>또 내가 max heap을 구성할 지 min heap를 구성할 지도 정해주어야 함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prioriry queue는 push를 함과 동시에 O(log N)의 복잡도로 heap에 맞는 위치를 결정함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop을 할 때도 마찬가지로 O(long N)의 복잡도로 꺼내면서 위치를 결정함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래서 항상 정렬되어 있으면서 정렬된 순으로 값을 빼내야하는 구조에서 사용함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성자를 알아보자.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>priority_queue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> pq_1;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>priority_queue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> pq_2;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>priority_queue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, greater</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> pq_3;</t>
+    </r>
+  </si>
+  <si>
+    <t>2. 어떤 자료형이 들어갈 지와 컨테이너만 정함. 마찬가지로 max heap이 만들어 짐.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 자료형과 컨테이너와 비교방법까지 정한 것. 비교연산은 부모,자식 순으로 넣어서 참이 되는 방향.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>따라서 greater면 부모&lt;자식이 참인 방향. 따라서 min heap이 만들어 짐.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>활용)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>max heap은 pair와 함께 사용할 수도 있음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>proirty_queue&lt;pair&lt;int, int&gt;&gt;라고 선언하면 max heap이 만들어진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 때 first의 값이 큰 것이 더 크고, first의 값이 같다면 second의 값을 비교하여 대소를 결정함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10, 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10, 5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5, 20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성자 활용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 어떤 자료형이 들어갈 지만 정함. 컨테이너의 디폴트는 vector, 정렬은 less&lt;int&gt;(less일때 max heap임)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>set을 만들 때 iterator를 이용하여 스마트하게 만들 수 있었음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>set&lt;int&gt; mySet(myVec.begin(), myVec.end());</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>priority_queue도 마찬가지.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>priority_queue&lt;int&gt; myPQ(myVec.begin(), myVec.end());</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 더 맵게</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 작은거 2개를 더해서 새로 컨테이너에 넣어야 함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러면 탐색, 제거, 삽입, 정렬을 계속 해야하기에 heap를 만드는 것이 좋음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>따라서 priority_queue로 구현함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 외 특이사항 없음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정렬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정렬에 대해서는 설명 보다는 라이브러리 사용법에 대해 서술하는 것이 더 좋을 것.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++에서 algorithm라이브러리에 있는 정렬함수.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort(iter first, iter last)로 정렬하면 오름차순으로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort(iter first, iter last, compare)를 이용하여 다른 비교도 만들 수 있음. 내림차순 하려면 less로 하면 됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>람다 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort를 사용할 때 오름차순이 아닌 정렬을 하거나 특정 정렬 방식을 내가 만들어야 하는 경우가 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 때 일회용 익명 함수인 람다 함수를 활용하면 좋다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>람다 함수의 기본 형태는 [캡쳐타입](파라미터) -&gt; 반환타입 {함수본문} 이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캡쳐타입을 제외한 나머지는 간단하니 캡쳐타입에 대해 알아보자.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캡쳐타입은 이 익명 함수가 외부에서 선언한 변수를 얼마나 사용할 지를 말한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무것도 적지 않으면 내가 넣은 파라미터와 본문에서 만든 것 외에는 사용하지 않음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[=]는 외부의 모든 변수를 모두 인스턴스로 만들어서 사용한다는 것. 본문 내용의 결과가 외부 변수의 값을 수정하지 않음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[&amp;]는 외부의 모든 변수를 참조 타입으로 사용한다는 것. 따라서 람다함수의 본문에서 값을 수정하면 외부 값도 수정됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[a]라고 하면 외부에서 선언한 a라는 변수를 사용하는 것.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[&amp;a]라고 하면 외부에서 선언한 a라는 변수를 참조 타입으로 사용. 즉 a의 값이 실제 바뀜.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>람다함수를 이용해 sort를 해보자.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본으로 sort(vec.begin(), vec.end());를 하면 오름차순으로 정리됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내림차순으로 정리하고 싶다면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    sort(myVec.begin(), myVec.end(), [](int a, int b) -&gt; bool {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return a &lt; b;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        });</t>
+  </si>
+  <si>
+    <t>라고 하면 된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>it++와 ++it의 차이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>for (~~; ~~; ++it)라고 작성해야 한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iterator를 통해 반복문을 돌릴 때 for (~~; ~~; it++)라고 작성할 수 있는데</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>후위 연산자(it++)로 작성한 경우 값을 사용하고 더해주어야 하기에 임시 변수를 만들어서 값을 저장하는 과정이 듬.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>따라서 ++it라고 하는 것이 시간을 절약할 수 있음.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -970,12 +1651,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FFA71D5D"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color rgb="FF010101"/>
       <name val="Consolas"/>
       <family val="3"/>
@@ -1027,6 +1702,14 @@
       <color rgb="FF098658"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1167,7 +1850,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1249,6 +1932,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1261,17 +1956,17 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1389,6 +2084,342 @@
         <xdr:cNvPr id="2" name="직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{939E3650-1300-4B40-8CC1-FB4907E785E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143500" y="914400"/>
+          <a:ext cx="2457450" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="6495ED"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA42F885-A2B6-48CF-87E8-E1CD4683FFEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143500" y="914400"/>
+          <a:ext cx="2457450" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="6495ED"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42CC4B49-31D7-4F53-B1B7-CE18831A1764}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143500" y="914400"/>
+          <a:ext cx="2457450" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="6495ED"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FF50E4B-92C2-D330-714D-ED085D640670}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5667375" y="4086225"/>
+          <a:ext cx="3333750" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>vector</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>는 확장할 때 필요한 만큼의 길이만큼 새로운 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>array</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>를 할당해서 복사하는 것이다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>따라서 메모리 전체를 복사해야한다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>하지만 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>deque</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>는 필요한 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>array</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>만큼만 붙이도록 만듬</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ADA3D1B-2FE5-4C85-AC5A-2461A09075BA}"/>
             </a:ext>
           </a:extLst>
@@ -1440,7 +2471,78 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60D1DBAA-8843-4650-842A-3DC33D4A4487}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143500" y="914400"/>
+          <a:ext cx="2457450" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="6495ED"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1936,141 +3038,141 @@
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>3</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>4</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>6</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>7</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2097,7 +3199,7 @@
   <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2106,12 +3208,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="33" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
+      <c r="A2" s="34"/>
       <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
@@ -2121,7 +3223,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
+      <c r="A3" s="34"/>
       <c r="H3" s="6"/>
       <c r="M3" s="14" t="s">
         <v>7</v>
@@ -2132,7 +3234,7 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
+      <c r="A4" s="34"/>
       <c r="H4" s="6"/>
       <c r="M4" s="10" t="s">
         <v>8</v>
@@ -2142,15 +3244,15 @@
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
+      <c r="A5" s="34"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+      <c r="A6" s="34"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+      <c r="A7" s="34"/>
       <c r="H7" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2162,129 +3264,8 @@
       <c r="E9" s="12"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="D19" s="31"/>
-    </row>
-    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="32"/>
-    </row>
-    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="32"/>
-    </row>
-    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="32"/>
-    </row>
-    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="32"/>
-    </row>
-    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="32"/>
-    </row>
-    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="32"/>
-    </row>
-    <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="31"/>
-    </row>
-    <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="32"/>
-    </row>
-    <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="32"/>
-    </row>
-    <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="32"/>
-    </row>
-    <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="32"/>
-    </row>
-    <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="32"/>
-    </row>
-    <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="32"/>
-    </row>
-    <row r="33" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="32"/>
-    </row>
-    <row r="34" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="32"/>
-    </row>
-    <row r="35" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="32"/>
-    </row>
-    <row r="36" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="32"/>
-    </row>
-    <row r="37" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="32"/>
-    </row>
-    <row r="38" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="32"/>
-    </row>
-    <row r="39" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="32"/>
-    </row>
-    <row r="40" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D40" s="32"/>
-    </row>
-    <row r="41" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="32"/>
-    </row>
-    <row r="42" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D42" s="32"/>
-    </row>
-    <row r="43" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="32"/>
-    </row>
-    <row r="44" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D44" s="32"/>
-    </row>
-    <row r="45" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D45" s="32"/>
-    </row>
-    <row r="46" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D46" s="32"/>
-    </row>
-    <row r="47" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D47" s="32"/>
-    </row>
-    <row r="48" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D48" s="32"/>
-    </row>
-    <row r="49" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D49" s="32"/>
-    </row>
-    <row r="50" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="32"/>
-    </row>
-    <row r="51" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D51" s="32"/>
-    </row>
-    <row r="52" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D52" s="32"/>
-    </row>
-    <row r="53" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="32"/>
-    </row>
-    <row r="54" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D54" s="32"/>
-    </row>
-    <row r="55" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D55" s="32"/>
-    </row>
-    <row r="56" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D56" s="32"/>
-    </row>
-    <row r="57" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D57" s="32"/>
-    </row>
-    <row r="58" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D58" s="32"/>
-    </row>
     <row r="59" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D59" s="32"/>
+      <c r="D59" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2301,10 +3282,575 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5CE60D-3F10-4903-B885-6CDA794FB40F}">
-  <dimension ref="A1:Q83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DCCDC4B-10B5-4FB8-B5BB-DE6FFA03CB16}">
+  <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="5.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34"/>
+      <c r="M2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="13"/>
+    </row>
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="34"/>
+      <c r="H3" s="6"/>
+      <c r="M3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+    </row>
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="34"/>
+      <c r="H4" s="6"/>
+      <c r="M4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+    </row>
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="34"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="34"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="34"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="11" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="15" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="21" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E37" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E38" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1:A7" location="목차!A1" display="목차!A1" xr:uid="{BCEB27EB-5022-41FB-9B3A-26FAB611D121}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74305CAB-EF31-4180-A9B1-F3B919031D3D}">
+  <dimension ref="A1:Q73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="7" width="5.625" style="3"/>
+    <col min="8" max="8" width="5.625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="5.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34"/>
+      <c r="M2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="13"/>
+    </row>
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="34"/>
+      <c r="H3" s="6"/>
+      <c r="M3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+    </row>
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="34"/>
+      <c r="H4" s="6"/>
+      <c r="M4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+    </row>
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="34"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="34"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="34"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="11" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="13" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="20" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+    </row>
+    <row r="33" spans="5:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E37" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F38" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F39" s="36">
+        <v>1</v>
+      </c>
+      <c r="G39" s="29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="5:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F40" s="36">
+        <v>2</v>
+      </c>
+      <c r="G40" s="29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="5:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F41" s="36">
+        <v>3</v>
+      </c>
+      <c r="G41" s="29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" spans="5:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E43" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="5:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E44" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="5:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E45" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" spans="5:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F46" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="48" spans="5:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E48" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E50" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E51" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="52" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F53" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H53" s="37" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F54" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E56" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="58" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E58" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="27"/>
+      <c r="E59" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E60" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="61" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E61" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="13"/>
+    </row>
+    <row r="68" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+    </row>
+    <row r="70" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D70" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D71" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D72" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D73" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1:A7" location="목차!A1" display="목차!A1" xr:uid="{09C36E54-3CCC-4D50-9203-2751E9AC227F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27DC9AE-D3F3-4D99-93B4-7F898251C61F}">
+  <dimension ref="A1:X64"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
@@ -2314,12 +3860,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="33" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
+      <c r="A2" s="34"/>
       <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
@@ -2329,7 +3875,521 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
+      <c r="A3" s="34"/>
+      <c r="H3" s="6"/>
+      <c r="M3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+    </row>
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="34"/>
+      <c r="H4" s="6"/>
+      <c r="M4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+    </row>
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="34"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="34"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="34"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="11" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+    </row>
+    <row r="20" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="32"/>
+    </row>
+    <row r="32" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" s="32"/>
+      <c r="G32" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="32"/>
+    </row>
+    <row r="33" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="32"/>
+    </row>
+    <row r="34" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="32"/>
+    </row>
+    <row r="35" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="32"/>
+      <c r="V35" s="32"/>
+      <c r="W35" s="32"/>
+      <c r="X35" s="32"/>
+    </row>
+    <row r="36" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" s="32"/>
+      <c r="G36" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="32"/>
+    </row>
+    <row r="37" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="32"/>
+      <c r="U37" s="32"/>
+      <c r="V37" s="32"/>
+      <c r="W37" s="32"/>
+      <c r="X37" s="32"/>
+    </row>
+    <row r="38" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="32"/>
+      <c r="U38" s="32"/>
+      <c r="V38" s="32"/>
+      <c r="W38" s="32"/>
+      <c r="X38" s="32"/>
+    </row>
+    <row r="39" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="32"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="32"/>
+      <c r="T39" s="32"/>
+      <c r="U39" s="32"/>
+      <c r="V39" s="32"/>
+      <c r="W39" s="32"/>
+      <c r="X39" s="32"/>
+    </row>
+    <row r="41" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+    </row>
+    <row r="43" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D43" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D45" s="30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D46" s="30"/>
+      <c r="E46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D47" s="30"/>
+      <c r="E47" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D48" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="13"/>
+    </row>
+    <row r="51" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F51" s="29"/>
+    </row>
+    <row r="52" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+    </row>
+    <row r="54" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D54" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D55" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D56" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+    </row>
+    <row r="59" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="27"/>
+    </row>
+    <row r="60" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D60" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D61" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D62" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D63" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D64" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:A7"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:X31"/>
+    <mergeCell ref="E36:F39"/>
+    <mergeCell ref="G32:L35"/>
+    <mergeCell ref="G36:L39"/>
+    <mergeCell ref="M32:R35"/>
+    <mergeCell ref="S32:X35"/>
+    <mergeCell ref="M36:R39"/>
+    <mergeCell ref="S36:X39"/>
+    <mergeCell ref="E32:F35"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1:A7" location="목차!A1" display="목차!A1" xr:uid="{77CFC214-F479-4364-A6C9-8FA33CBB468B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5CE60D-3F10-4903-B885-6CDA794FB40F}">
+  <dimension ref="A1:Q83"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="5.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34"/>
+      <c r="M2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="13"/>
+    </row>
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="34"/>
       <c r="E3" s="6"/>
       <c r="H3" s="6"/>
       <c r="M3" s="14" t="s">
@@ -2341,7 +4401,7 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
+      <c r="A4" s="34"/>
       <c r="E4" s="6"/>
       <c r="H4" s="6"/>
       <c r="M4" s="10" t="s">
@@ -2352,17 +4412,17 @@
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
+      <c r="A5" s="34"/>
       <c r="E5" s="6"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+      <c r="A6" s="34"/>
       <c r="E6" s="6"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+      <c r="A7" s="34"/>
       <c r="H7" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2400,12 +4460,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="C19" s="14" t="s">
         <v>87</v>
@@ -2415,32 +4475,40 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E22" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D24" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D25" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="3" t="s">
+    <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="30" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+    </row>
+    <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="14" t="s">
         <v>88</v>
       </c>
@@ -2449,12 +4517,12 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D30" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E31" s="3" t="s">
         <v>94</v>
       </c>
@@ -2483,22 +4551,22 @@
       <c r="E38" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="33" t="s">
+      <c r="F38" s="28" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="39" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F39" s="34" t="s">
+      <c r="F39" s="29" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="40" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F40" s="34" t="s">
+      <c r="F40" s="29" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="41" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F41" s="34" t="s">
+      <c r="F41" s="29" t="s">
         <v>104</v>
       </c>
       <c r="G41" s="3" t="s">
@@ -2506,7 +4574,7 @@
       </c>
     </row>
     <row r="42" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F42" s="34" t="s">
+      <c r="F42" s="29" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2514,28 +4582,28 @@
       <c r="D43" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F43" s="34"/>
+      <c r="F43" s="29"/>
     </row>
     <row r="44" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F44" s="34"/>
+      <c r="F44" s="29"/>
     </row>
     <row r="45" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F45" s="34"/>
+      <c r="F45" s="29"/>
     </row>
     <row r="46" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F46" s="34"/>
+      <c r="F46" s="29"/>
     </row>
     <row r="47" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F47" s="34"/>
+      <c r="F47" s="29"/>
     </row>
     <row r="48" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F48" s="34"/>
+      <c r="F48" s="29"/>
     </row>
     <row r="49" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F49" s="34"/>
+      <c r="F49" s="29"/>
     </row>
     <row r="50" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F50" s="34"/>
+      <c r="F50" s="29"/>
     </row>
     <row r="51" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
@@ -2547,7 +4615,7 @@
       <c r="F51" s="13"/>
     </row>
     <row r="52" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F52" s="34"/>
+      <c r="F52" s="29"/>
     </row>
     <row r="53" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="14" t="s">
@@ -2578,16 +4646,16 @@
       </c>
     </row>
     <row r="80" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D80" s="32"/>
+      <c r="D80" s="27"/>
     </row>
     <row r="81" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D81" s="32"/>
+      <c r="D81" s="27"/>
     </row>
     <row r="82" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D82" s="32"/>
+      <c r="D82" s="27"/>
     </row>
     <row r="83" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D83" s="32"/>
+      <c r="D83" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2603,7 +4671,114 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8709AF78-8857-4867-B1DD-14A6DFC4B711}">
+  <dimension ref="A1:Q59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="5.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34"/>
+      <c r="M2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="13"/>
+    </row>
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="34"/>
+      <c r="H3" s="6"/>
+      <c r="M3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+    </row>
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="34"/>
+      <c r="H4" s="6"/>
+      <c r="M4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+    </row>
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="34"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="34"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="34"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="11" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1:A7" location="목차!A1" display="목차!A1" xr:uid="{0EB83592-1433-4420-8FD0-0C458FCD1823}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53359E70-DA5A-4BCE-A940-CF5D8D1B11F9}">
   <dimension ref="A1:V125"/>
   <sheetViews>
@@ -2614,7 +4789,7 @@
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="33" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="3"/>
@@ -2640,7 +4815,7 @@
       <c r="V1" s="3"/>
     </row>
     <row r="2" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
+      <c r="A2" s="34"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -2664,7 +4839,7 @@
       <c r="U2" s="3"/>
     </row>
     <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -2688,7 +4863,7 @@
       <c r="U3" s="3"/>
     </row>
     <row r="4" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -2711,7 +4886,7 @@
       <c r="U4" s="3"/>
     </row>
     <row r="5" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -2729,7 +4904,7 @@
       <c r="U5" s="3"/>
     </row>
     <row r="6" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -2747,7 +4922,7 @@
       <c r="U6" s="3"/>
     </row>
     <row r="7" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+      <c r="A7" s="34"/>
       <c r="H7" s="5"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>

--- a/정리.xlsx
+++ b/정리.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KDJ\Desktop\algorithm-practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472655F1-A842-4C3E-89A4-EBFE3CCE284E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33227866-7852-41AD-9060-56A809E5F717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="855" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11130" yWindow="1365" windowWidth="17670" windowHeight="11385" tabRatio="855" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="1" r:id="rId1"/>
     <sheet name="temp" sheetId="3" r:id="rId2"/>
-    <sheet name="sort" sheetId="26" r:id="rId3"/>
-    <sheet name="heap" sheetId="25" r:id="rId4"/>
-    <sheet name="stack-queue" sheetId="24" r:id="rId5"/>
-    <sheet name="hash" sheetId="23" r:id="rId6"/>
-    <sheet name="기타 팁" sheetId="27" r:id="rId7"/>
-    <sheet name="커밋컨벤션" sheetId="19" r:id="rId8"/>
+    <sheet name="bruteForce" sheetId="28" r:id="rId3"/>
+    <sheet name="sort" sheetId="26" r:id="rId4"/>
+    <sheet name="heap" sheetId="25" r:id="rId5"/>
+    <sheet name="stack-queue" sheetId="24" r:id="rId6"/>
+    <sheet name="hash" sheetId="23" r:id="rId7"/>
+    <sheet name="기타 팁" sheetId="27" r:id="rId8"/>
+    <sheet name="실수목록" sheetId="29" r:id="rId9"/>
+    <sheet name="커밋컨벤션" sheetId="19" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="267">
   <si>
     <t>NO</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1561,6 +1563,155 @@
   </si>
   <si>
     <t>따라서 ++it라고 하는 것이 시간을 절약할 수 있음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벡터의 벡터 정렬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector&lt;vector&lt;int, int&gt; myVec가 있다고 하자.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이를 정렬하면 어떻게 될까?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30 70 300</t>
+  </si>
+  <si>
+    <t>60 30</t>
+  </si>
+  <si>
+    <t>60 30 10</t>
+  </si>
+  <si>
+    <t>80 40</t>
+  </si>
+  <si>
+    <t>80 40 10</t>
+  </si>
+  <si>
+    <t>2 ~ 3의 크기를 가진 벡터들을 몇 개 만들어서 정렬해본 결과 다음과 같다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>즉, 0번째 자리먼저 비교하고 그 값이 같다면 그 다음값을 비교하고 … 이런식으로 진행됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60 30 -50</t>
+  </si>
+  <si>
+    <t>60 30 30</t>
+  </si>
+  <si>
+    <t>이 때, 값이 없다면 없는 값이 가장 먼저다.(당연히 음수보다도 먼저. 0이랑 비교하는게 아님)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>swap 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 변수의 값을 바꾸는 swap함수는 algorithm헤더에 작성되어 있음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다양한 자료형에 대해 작동하는데 사용자가 정의한 타입에 대해서도 작동하도록 할 수도 있음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완전 탐색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완전 탐색은 실제 반복문을 돌며 해당하는 것들을 확인하는 것으로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무언가 아이디어 보다는 크기와 속도를 가늠하는 것이 더 중요할 것.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>따라서 하기 전에는 자료의 크기와 내가 수행할 알고리즘의 복잡도를 고려해서 하자.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소 직사각형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_element 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>크기 비교연산이 가능한 컨테이너의 iterator를 통한 최대/최소 원소 반환 함수가 있음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>반환 값은 iterator임. 형태는 다음과 같음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int max = *max_element(correctCount.begin(), correctCount.end());</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>반복 패턴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 패턴이 반복만되는 경우 그 패턴을 수로 만드려 하지 말자.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch-case문도 사용하지 않고 vector를 만들어서 myVec.at(i % myVec.size())를 해주면 됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector&lt;int&gt; answerOf2({2, 1, 2, 3, 2, 4, 2, 5});</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>answerOf2.at(i % answerOf2.size())로 참조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 찾기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨테이너에서 가장 큰/작은 값을 찾는 거 말고 반복문을 돌며 최대를 찾아야 할 일이 있음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxValue = max(maxValue, arr[i]);</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 때 if로 비교해서 크면 넣고 이렇게 하지 말고 std:: max함수를 이용하여 다음과 같이 작성해보자.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>둘 중 작은 것에 대한 최대와 큰 것에 대한 최대를 구하도록 작성하면 됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector가 두가지 성분이 있고 어떤 것이 큰지/작은지를 생각해야 하고, 딱히 정렬할 필요는 없어서 직접 반복문 돌면서 찾았음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모의고사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생마다 답의 패턴이 있어서 이를 만들고 문제의 답과 비교하며 count를 셌음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 최대로 맞은 사람과 같은 사람을 추가하도록 만듬.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1712,7 +1863,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1734,6 +1885,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1850,7 +2007,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1944,6 +2101,15 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1959,13 +2125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2084,7 +2244,7 @@
         <xdr:cNvPr id="2" name="직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{939E3650-1300-4B40-8CC1-FB4907E785E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{635CA9A0-8D31-41F3-A59F-9FE4FE181792}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2155,6 +2315,77 @@
         <xdr:cNvPr id="2" name="직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{939E3650-1300-4B40-8CC1-FB4907E785E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143500" y="914400"/>
+          <a:ext cx="2457450" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="6495ED"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA42F885-A2B6-48CF-87E8-E1CD4683FFEB}"/>
             </a:ext>
           </a:extLst>
@@ -2206,7 +2437,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2400,7 +2631,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2471,7 +2702,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2542,7 +2773,78 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54C8D657-6461-49E3-9A69-70B86DB5E0F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143500" y="914400"/>
+          <a:ext cx="2457450" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="6495ED"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3038,141 +3340,141 @@
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>3</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>4</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>6</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>7</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3194,1591 +3496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q59"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="5.625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="M2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="13"/>
-    </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34"/>
-      <c r="H3" s="6"/>
-      <c r="M3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-    </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
-      <c r="H4" s="6"/>
-      <c r="M4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-    </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="59" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D59" s="27"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:A7"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1:A7" location="목차!A1" display="목차!A1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DCCDC4B-10B5-4FB8-B5BB-DE6FFA03CB16}">
-  <dimension ref="A1:Q59"/>
-  <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="5.625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="M2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="13"/>
-    </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34"/>
-      <c r="H3" s="6"/>
-      <c r="M3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-    </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
-      <c r="H4" s="6"/>
-      <c r="M4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-    </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="11" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="15" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="21" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="34" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="35" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="36" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E36" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="37" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E37" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="38" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="39" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="59" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D59" s="27"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:A7"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1:A7" location="목차!A1" display="목차!A1" xr:uid="{BCEB27EB-5022-41FB-9B3A-26FAB611D121}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74305CAB-EF31-4180-A9B1-F3B919031D3D}">
-  <dimension ref="A1:Q73"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="7" width="5.625" style="3"/>
-    <col min="8" max="8" width="5.625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="5.625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="M2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="13"/>
-    </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34"/>
-      <c r="H3" s="6"/>
-      <c r="M3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-    </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
-      <c r="H4" s="6"/>
-      <c r="M4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-    </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="11" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="13" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="20" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="31" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-    </row>
-    <row r="33" spans="5:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="34" spans="5:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="35" spans="5:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E35" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="37" spans="5:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E37" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="38" spans="5:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F38" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="5:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F39" s="36">
-        <v>1</v>
-      </c>
-      <c r="G39" s="29" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="40" spans="5:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F40" s="36">
-        <v>2</v>
-      </c>
-      <c r="G40" s="29" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="41" spans="5:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F41" s="36">
-        <v>3</v>
-      </c>
-      <c r="G41" s="29" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="43" spans="5:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E43" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="44" spans="5:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E44" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="45" spans="5:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E45" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="46" spans="5:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F46" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="48" spans="5:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E48" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="49" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E49" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="50" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E50" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="51" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E51" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="52" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E52" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F53" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H53" s="37" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="54" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F54" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="56" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E56" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="58" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E58" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="59" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D59" s="27"/>
-      <c r="E59" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="60" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E60" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="61" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E61" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="13"/>
-    </row>
-    <row r="68" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-    </row>
-    <row r="70" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D70" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D71" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D72" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D73" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:A7"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1:A7" location="목차!A1" display="목차!A1" xr:uid="{09C36E54-3CCC-4D50-9203-2751E9AC227F}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27DC9AE-D3F3-4D99-93B4-7F898251C61F}">
-  <dimension ref="A1:X64"/>
-  <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="5.625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="M2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="13"/>
-    </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34"/>
-      <c r="H3" s="6"/>
-      <c r="M3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-    </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
-      <c r="H4" s="6"/>
-      <c r="M4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-    </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="11" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-    </row>
-    <row r="20" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E31" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="T31" s="32"/>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="32"/>
-    </row>
-    <row r="32" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E32" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="F32" s="32"/>
-      <c r="G32" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="T32" s="32"/>
-      <c r="U32" s="32"/>
-      <c r="V32" s="32"/>
-      <c r="W32" s="32"/>
-      <c r="X32" s="32"/>
-    </row>
-    <row r="33" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="32"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="32"/>
-    </row>
-    <row r="34" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="32"/>
-      <c r="T34" s="32"/>
-      <c r="U34" s="32"/>
-      <c r="V34" s="32"/>
-      <c r="W34" s="32"/>
-      <c r="X34" s="32"/>
-    </row>
-    <row r="35" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="32"/>
-      <c r="T35" s="32"/>
-      <c r="U35" s="32"/>
-      <c r="V35" s="32"/>
-      <c r="W35" s="32"/>
-      <c r="X35" s="32"/>
-    </row>
-    <row r="36" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E36" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="F36" s="32"/>
-      <c r="G36" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="T36" s="32"/>
-      <c r="U36" s="32"/>
-      <c r="V36" s="32"/>
-      <c r="W36" s="32"/>
-      <c r="X36" s="32"/>
-    </row>
-    <row r="37" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="32"/>
-      <c r="S37" s="32"/>
-      <c r="T37" s="32"/>
-      <c r="U37" s="32"/>
-      <c r="V37" s="32"/>
-      <c r="W37" s="32"/>
-      <c r="X37" s="32"/>
-    </row>
-    <row r="38" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="32"/>
-      <c r="S38" s="32"/>
-      <c r="T38" s="32"/>
-      <c r="U38" s="32"/>
-      <c r="V38" s="32"/>
-      <c r="W38" s="32"/>
-      <c r="X38" s="32"/>
-    </row>
-    <row r="39" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="32"/>
-      <c r="S39" s="32"/>
-      <c r="T39" s="32"/>
-      <c r="U39" s="32"/>
-      <c r="V39" s="32"/>
-      <c r="W39" s="32"/>
-      <c r="X39" s="32"/>
-    </row>
-    <row r="41" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-    </row>
-    <row r="43" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="44" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D44" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="45" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D45" s="30" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="46" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D46" s="30"/>
-      <c r="E46" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D47" s="30"/>
-      <c r="E47" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="48" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D48" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="13"/>
-    </row>
-    <row r="51" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F51" s="29"/>
-    </row>
-    <row r="52" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-    </row>
-    <row r="54" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D54" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D55" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D56" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-    </row>
-    <row r="59" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D59" s="27"/>
-    </row>
-    <row r="60" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D60" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D61" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D62" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D63" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D64" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A1:A7"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:X31"/>
-    <mergeCell ref="E36:F39"/>
-    <mergeCell ref="G32:L35"/>
-    <mergeCell ref="G36:L39"/>
-    <mergeCell ref="M32:R35"/>
-    <mergeCell ref="S32:X35"/>
-    <mergeCell ref="M36:R39"/>
-    <mergeCell ref="S36:X39"/>
-    <mergeCell ref="E32:F35"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1:A7" location="목차!A1" display="목차!A1" xr:uid="{77CFC214-F479-4364-A6C9-8FA33CBB468B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5CE60D-3F10-4903-B885-6CDA794FB40F}">
-  <dimension ref="A1:Q83"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="5.625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="M2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="13"/>
-    </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34"/>
-      <c r="E3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="M3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-    </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
-      <c r="E4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="M4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-    </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
-      <c r="E5" s="6"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
-      <c r="E6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="11" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="C19" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-    </row>
-    <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-    </row>
-    <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E31" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F39" s="29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F40" s="29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F41" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F42" s="29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F43" s="29"/>
-    </row>
-    <row r="44" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F44" s="29"/>
-    </row>
-    <row r="45" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F45" s="29"/>
-    </row>
-    <row r="46" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F46" s="29"/>
-    </row>
-    <row r="47" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F47" s="29"/>
-    </row>
-    <row r="48" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F48" s="29"/>
-    </row>
-    <row r="49" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F49" s="29"/>
-    </row>
-    <row r="50" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F50" s="29"/>
-    </row>
-    <row r="51" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="13"/>
-    </row>
-    <row r="52" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F52" s="29"/>
-    </row>
-    <row r="53" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-    </row>
-    <row r="55" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D55" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-    </row>
-    <row r="59" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D59" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="80" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D80" s="27"/>
-    </row>
-    <row r="81" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D81" s="27"/>
-    </row>
-    <row r="82" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D82" s="27"/>
-    </row>
-    <row r="83" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D83" s="27"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:A7"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1:A7" location="목차!A1" display="목차!A1" xr:uid="{F10F27C0-1280-4C11-88CE-AF0E165BEE27}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8709AF78-8857-4867-B1DD-14A6DFC4B711}">
-  <dimension ref="A1:Q59"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="5.625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="M2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="13"/>
-    </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34"/>
-      <c r="H3" s="6"/>
-      <c r="M3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-    </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
-      <c r="H4" s="6"/>
-      <c r="M4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-    </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="11" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="59" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D59" s="27"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:A7"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1:A7" location="목차!A1" display="목차!A1" xr:uid="{0EB83592-1433-4420-8FD0-0C458FCD1823}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53359E70-DA5A-4BCE-A940-CF5D8D1B11F9}">
   <dimension ref="A1:V125"/>
   <sheetViews>
@@ -4789,7 +3507,7 @@
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="3"/>
@@ -4815,7 +3533,7 @@
       <c r="V1" s="3"/>
     </row>
     <row r="2" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
+      <c r="A2" s="37"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -4839,7 +3557,7 @@
       <c r="U2" s="3"/>
     </row>
     <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -4863,7 +3581,7 @@
       <c r="U3" s="3"/>
     </row>
     <row r="4" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -4886,7 +3604,7 @@
       <c r="U4" s="3"/>
     </row>
     <row r="5" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -4904,7 +3622,7 @@
       <c r="U5" s="3"/>
     </row>
     <row r="6" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -4922,7 +3640,7 @@
       <c r="U6" s="3"/>
     </row>
     <row r="7" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
+      <c r="A7" s="37"/>
       <c r="H7" s="5"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -5412,4 +4130,2017 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Q59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="5.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37"/>
+      <c r="M2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="13"/>
+    </row>
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="37"/>
+      <c r="H3" s="6"/>
+      <c r="M3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+    </row>
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="37"/>
+      <c r="H4" s="6"/>
+      <c r="M4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+    </row>
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="37"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="37"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="37"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="59" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1:A7" location="목차!A1" display="목차!A1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFF7ADC-9B90-43D2-923E-01DE6568B968}">
+  <dimension ref="A1:Q59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="5.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37"/>
+      <c r="M2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="13"/>
+    </row>
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="37"/>
+      <c r="H3" s="6"/>
+      <c r="M3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+    </row>
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="37"/>
+      <c r="H4" s="6"/>
+      <c r="M4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+    </row>
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="37"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="37"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="37"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="11" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="19" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="21" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="26" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1:A7" location="목차!A1" display="목차!A1" xr:uid="{94B0229A-537D-419A-861E-FC7A3E49D9B8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DCCDC4B-10B5-4FB8-B5BB-DE6FFA03CB16}">
+  <dimension ref="A1:Q60"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="5.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37"/>
+      <c r="M2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="13"/>
+    </row>
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="37"/>
+      <c r="H3" s="6"/>
+      <c r="M3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+    </row>
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="37"/>
+      <c r="H4" s="6"/>
+      <c r="M4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+    </row>
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="37"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="37"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="37"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="11" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="15" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="21" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E37" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E38" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+    </row>
+    <row r="43" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D43" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D45" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E47" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+    </row>
+    <row r="48" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E48" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+    </row>
+    <row r="49" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+    </row>
+    <row r="50" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E50" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+    </row>
+    <row r="51" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E51" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+    </row>
+    <row r="52" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E52" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+    </row>
+    <row r="53" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E53" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+    </row>
+    <row r="54" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+    </row>
+    <row r="56" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D56" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="57" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D57" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="60" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D60" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1:A7" location="목차!A1" display="목차!A1" xr:uid="{BCEB27EB-5022-41FB-9B3A-26FAB611D121}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74305CAB-EF31-4180-A9B1-F3B919031D3D}">
+  <dimension ref="A1:Q73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="7" width="5.625" style="3"/>
+    <col min="8" max="8" width="5.625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="5.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37"/>
+      <c r="M2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="13"/>
+    </row>
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="37"/>
+      <c r="H3" s="6"/>
+      <c r="M3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+    </row>
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="37"/>
+      <c r="H4" s="6"/>
+      <c r="M4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+    </row>
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="37"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="37"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="37"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="11" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="13" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="20" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+    </row>
+    <row r="33" spans="5:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E37" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F38" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F39" s="31">
+        <v>1</v>
+      </c>
+      <c r="G39" s="29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="5:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F40" s="31">
+        <v>2</v>
+      </c>
+      <c r="G40" s="29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="5:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F41" s="31">
+        <v>3</v>
+      </c>
+      <c r="G41" s="29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" spans="5:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E43" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="5:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E44" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="5:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E45" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" spans="5:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F46" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="48" spans="5:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E48" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E50" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E51" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="52" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F53" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H53" s="32" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F54" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E56" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="58" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E58" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="27"/>
+      <c r="E59" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E60" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="61" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E61" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="13"/>
+    </row>
+    <row r="68" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+    </row>
+    <row r="70" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D70" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D71" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D72" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D73" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1:A7" location="목차!A1" display="목차!A1" xr:uid="{09C36E54-3CCC-4D50-9203-2751E9AC227F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27DC9AE-D3F3-4D99-93B4-7F898251C61F}">
+  <dimension ref="A1:X64"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="5.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37"/>
+      <c r="M2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="13"/>
+    </row>
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="37"/>
+      <c r="H3" s="6"/>
+      <c r="M3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+    </row>
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="37"/>
+      <c r="H4" s="6"/>
+      <c r="M4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+    </row>
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="37"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="37"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="37"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="11" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+    </row>
+    <row r="20" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+    </row>
+    <row r="32" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" s="35"/>
+      <c r="G32" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+    </row>
+    <row r="33" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
+    </row>
+    <row r="34" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+    </row>
+    <row r="35" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="35"/>
+      <c r="X35" s="35"/>
+    </row>
+    <row r="36" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" s="35"/>
+      <c r="G36" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="T36" s="35"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="35"/>
+      <c r="X36" s="35"/>
+    </row>
+    <row r="37" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="35"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="35"/>
+      <c r="V37" s="35"/>
+      <c r="W37" s="35"/>
+      <c r="X37" s="35"/>
+    </row>
+    <row r="38" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="35"/>
+      <c r="V38" s="35"/>
+      <c r="W38" s="35"/>
+      <c r="X38" s="35"/>
+    </row>
+    <row r="39" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="35"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="35"/>
+      <c r="V39" s="35"/>
+      <c r="W39" s="35"/>
+      <c r="X39" s="35"/>
+    </row>
+    <row r="41" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+    </row>
+    <row r="43" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D43" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D45" s="30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D46" s="30"/>
+      <c r="E46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D47" s="30"/>
+      <c r="E47" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D48" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="13"/>
+    </row>
+    <row r="51" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F51" s="29"/>
+    </row>
+    <row r="52" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+    </row>
+    <row r="54" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D54" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D55" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D56" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+    </row>
+    <row r="59" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="27"/>
+    </row>
+    <row r="60" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D60" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D61" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D62" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D63" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D64" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="E36:F39"/>
+    <mergeCell ref="G32:L35"/>
+    <mergeCell ref="G36:L39"/>
+    <mergeCell ref="M32:R35"/>
+    <mergeCell ref="S32:X35"/>
+    <mergeCell ref="M36:R39"/>
+    <mergeCell ref="S36:X39"/>
+    <mergeCell ref="E32:F35"/>
+    <mergeCell ref="A1:A7"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:X31"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1:A7" location="목차!A1" display="목차!A1" xr:uid="{77CFC214-F479-4364-A6C9-8FA33CBB468B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5CE60D-3F10-4903-B885-6CDA794FB40F}">
+  <dimension ref="A1:Q83"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="5.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37"/>
+      <c r="M2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="13"/>
+    </row>
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="37"/>
+      <c r="E3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="M3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+    </row>
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="37"/>
+      <c r="E4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="M4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+    </row>
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="37"/>
+      <c r="E5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="37"/>
+      <c r="E6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="37"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="11" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="C19" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+    </row>
+    <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F39" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F40" s="29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F41" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F42" s="29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D43" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F43" s="29"/>
+    </row>
+    <row r="44" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="29"/>
+    </row>
+    <row r="45" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F45" s="29"/>
+    </row>
+    <row r="46" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F46" s="29"/>
+    </row>
+    <row r="47" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F47" s="29"/>
+    </row>
+    <row r="48" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F48" s="29"/>
+    </row>
+    <row r="49" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F49" s="29"/>
+    </row>
+    <row r="50" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F50" s="29"/>
+    </row>
+    <row r="51" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="13"/>
+    </row>
+    <row r="52" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F52" s="29"/>
+    </row>
+    <row r="53" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+    </row>
+    <row r="55" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D55" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+    </row>
+    <row r="59" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D80" s="27"/>
+    </row>
+    <row r="81" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D81" s="27"/>
+    </row>
+    <row r="82" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D82" s="27"/>
+    </row>
+    <row r="83" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D83" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1:A7" location="목차!A1" display="목차!A1" xr:uid="{F10F27C0-1280-4C11-88CE-AF0E165BEE27}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8709AF78-8857-4867-B1DD-14A6DFC4B711}">
+  <dimension ref="A1:Q65"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="5.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37"/>
+      <c r="M2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="13"/>
+    </row>
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="37"/>
+      <c r="H3" s="6"/>
+      <c r="M3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+    </row>
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="37"/>
+      <c r="H4" s="6"/>
+      <c r="M4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+    </row>
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="37"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="37"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="37"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="11" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="19" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="24" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="30" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="36" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D65" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1:A7" location="목차!A1" display="목차!A1" xr:uid="{0EB83592-1433-4420-8FD0-0C458FCD1823}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3223DD8B-A1C7-45C6-AA2E-038777BE51FF}">
+  <dimension ref="A1:Q59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="5.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37"/>
+      <c r="M2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="13"/>
+    </row>
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="37"/>
+      <c r="H3" s="6"/>
+      <c r="M3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+    </row>
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="37"/>
+      <c r="H4" s="6"/>
+      <c r="M4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+    </row>
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="37"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="37"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="37"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="59" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1:A7" location="목차!A1" display="목차!A1" xr:uid="{16D4F984-5E70-4E5A-82E2-FB2A3777E4C6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/정리.xlsx
+++ b/정리.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KDJ\Desktop\algorithm-practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33227866-7852-41AD-9060-56A809E5F717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409C4CCD-DFF7-465E-8B27-B996BED266F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11130" yWindow="1365" windowWidth="17670" windowHeight="11385" tabRatio="855" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="855" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="1" r:id="rId1"/>
     <sheet name="temp" sheetId="3" r:id="rId2"/>
-    <sheet name="bruteForce" sheetId="28" r:id="rId3"/>
-    <sheet name="sort" sheetId="26" r:id="rId4"/>
-    <sheet name="heap" sheetId="25" r:id="rId5"/>
-    <sheet name="stack-queue" sheetId="24" r:id="rId6"/>
-    <sheet name="hash" sheetId="23" r:id="rId7"/>
-    <sheet name="기타 팁" sheetId="27" r:id="rId8"/>
-    <sheet name="실수목록" sheetId="29" r:id="rId9"/>
-    <sheet name="커밋컨벤션" sheetId="19" r:id="rId10"/>
+    <sheet name="greedy" sheetId="30" r:id="rId3"/>
+    <sheet name="bruteForce" sheetId="28" r:id="rId4"/>
+    <sheet name="sort" sheetId="26" r:id="rId5"/>
+    <sheet name="heap" sheetId="25" r:id="rId6"/>
+    <sheet name="stack-queue" sheetId="24" r:id="rId7"/>
+    <sheet name="hash" sheetId="23" r:id="rId8"/>
+    <sheet name="기타 팁" sheetId="27" r:id="rId9"/>
+    <sheet name="실수목록" sheetId="29" r:id="rId10"/>
+    <sheet name="커밋컨벤션" sheetId="19" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="312">
   <si>
     <t>NO</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1639,10 +1640,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>최소 직사각형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>max_element 함수</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1703,15 +1700,198 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>모의고사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>학생마다 답의 패턴이 있어서 이를 만들고 문제의 답과 비교하며 count를 셌음.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>그리고 최대로 맞은 사람과 같은 사람을 추가하도록 만듬.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. K번째 수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시키는 대로 잘라서 정렬했음. Vector의 iterator를 이용한 생성자와 sort함수로 깔끔하게 구현함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 가장 큰 수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>먼저 놓으면 유리한 것이 존재하다는 것은 생각하며 발견함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위 벡터의 벡터의 정렬을 보며 아이디어가 생각났음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫 자리가 큰 것이 유리하므로 비슷한 흐름으로 간다고 생각했음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 다른 것이 자리수가 다를 경우 맨 앞자리에 따라 유리할 수도 불리할 수도 있다는 것.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stoi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가끔 정수인데 너무 길어서 string으로 출력해야 하는 문제가 있음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 수가 0인지 확인하거나 그런 연산을 하려고 stoi그냥 쓰면 자리수 넘어감</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래서 고민하다가 생각한 것이 string으로 +하여 a + b랑 b + a를 비교하는 것으로 정렬하면 됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비교법만 생각하면 11번case였던 반례를 제외하면 쉬움.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11번은 0,0,0과 같은 반례임. 결과로 000이 아닌 0이 출력되어야 함. 이걸 어떻게 생각해;;;;;;-----….ㅅㅂ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리디 알고리즘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리디 알고리즘은 할 때마다 현재 최고의 선택지를 고르는 것이 가장 유일한 경우일 때 사용.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>따라서 문제가 공통적으로 가지는 특징 보다는 문제마다의 특성을 파악하는 것이 더 중요해 보임.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 최소 직사각형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 모의고사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 체육복</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deque로 선언해서 맨 앞 원소를 하나씩 비교하고 범위에 들면 둘다 pop하면서 count하도록 할 생각이었지만 변수 발생.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수는 잃어버린 사람이 여분이 있는 사람인 경우임.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잃어버린 사람이 4, 5이고 여분이 있는 사람이 5, 6인 경우를 생각해보자.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러면 본인이 본인것을 입어야한다는 규칙이 없으면 4번이 5번것을 5번이 6번것을 입을 수 있지만</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제 규칙에 본인이 잃어버리고 본인이 여분이 있는 경우 빌려줄 수 없다고 되어 있기에 이를 해결하려면 deque로는 어렵다고 판단.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이유는 deque는 중간에서 빼는 것이 불편하기에.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>따라서 인원이 30명밖에 되지 않기에 고정 길이 array를 이용하여 table을 만들어두고 했음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 조이스틱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름을 만들기 위해 좌우이동(위치 이동)과 상하이동(알파벳 바꾸기)로 나누어서 생각.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상하이동은 어차피 총합이 같기에 매우 단순했음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌우이동이 어려웠는데 처음에는 왼쪽으로쭉과 오른쪽으로 쭉만 생각했음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>반례)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABAAAAAAAB</t>
+  </si>
+  <si>
+    <t>오른쪽으로 한번 갔다가 왼쪽으로 두번 가는 것이 더 유리함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래서 다음에는 가장 가까운 곳으로 가자고 생각함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 때 문제는 길이가 같은 쪽이 두개 있다면..? 과 그냥 그것을 세는 것도 어려움.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러다가 고민끝에 생각해냄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음과 같은 이름을 생각하자(상하이동은 쉽기에 A와 A가아닌 것(B)로만 구성함)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABBABABBBABABBABA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디어는 요약하자면 오른쪽으로가다가 왼쪽으로가다가 오른쪽으로가는 그림은 없음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">다시말해 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>는 있어도 두번꺾이는 일은 없다는 것.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>따라서 어디서 되돌아올지만 결정하면 된다는 뜻.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른쪽으로 가다가 반환한다면 그 각 뭉탱이의 오른쪽에서 반환함 즉 빨간 화살표가 반환점이 될 수 있는 곳.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽으로 가다가 반환한다면 그 각 뭉탱이의 왼쪽에서 반환함. 즉 파란 화살표가 반환점이 될 수 있는 곳.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래서 이 두 값을 담아서 잘 계산하여 만들었음.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2110,6 +2290,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2124,9 +2307,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2224,627 +2404,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="직사각형 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{635CA9A0-8D31-41F3-A59F-9FE4FE181792}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5143500" y="914400"/>
-          <a:ext cx="2457450" cy="723900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="50800">
-          <a:solidFill>
-            <a:srgbClr val="6495ED"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="직사각형 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{939E3650-1300-4B40-8CC1-FB4907E785E5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5143500" y="914400"/>
-          <a:ext cx="2457450" cy="723900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="50800">
-          <a:solidFill>
-            <a:srgbClr val="6495ED"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="직사각형 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA42F885-A2B6-48CF-87E8-E1CD4683FFEB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5143500" y="914400"/>
-          <a:ext cx="2457450" cy="723900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="50800">
-          <a:solidFill>
-            <a:srgbClr val="6495ED"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="직사각형 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42CC4B49-31D7-4F53-B1B7-CE18831A1764}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5143500" y="914400"/>
-          <a:ext cx="2457450" cy="723900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="50800">
-          <a:solidFill>
-            <a:srgbClr val="6495ED"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FF50E4B-92C2-D330-714D-ED085D640670}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5667375" y="4086225"/>
-          <a:ext cx="3333750" cy="1104900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>vector</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>는 확장할 때 필요한 만큼의 길이만큼 새로운 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>array</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>를 할당해서 복사하는 것이다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>따라서 메모리 전체를 복사해야한다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>하지만 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>deque</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>는 필요한 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>array</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>만큼만 붙이도록 만듬</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>.</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="직사각형 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ADA3D1B-2FE5-4C85-AC5A-2461A09075BA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5143500" y="914400"/>
-          <a:ext cx="2457450" cy="723900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="50800">
-          <a:solidFill>
-            <a:srgbClr val="6495ED"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="직사각형 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60D1DBAA-8843-4650-842A-3DC33D4A4487}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5143500" y="914400"/>
-          <a:ext cx="2457450" cy="723900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="50800">
-          <a:solidFill>
-            <a:srgbClr val="6495ED"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="직사각형 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54C8D657-6461-49E3-9A69-70B86DB5E0F7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5143500" y="914400"/>
-          <a:ext cx="2457450" cy="723900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="50800">
-          <a:solidFill>
-            <a:srgbClr val="6495ED"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3042,6 +2602,1641 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA89A34A-7F86-4837-BFC8-4825D6929929}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143500" y="914400"/>
+          <a:ext cx="2457450" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="6495ED"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="화살표: 오른쪽으로 구부러짐 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{508AFF02-FA5E-432E-93E7-7F23395304DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2619375" y="10191750"/>
+          <a:ext cx="895350" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="화살표: 오른쪽으로 구부러짐 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CB8AEDE-D0C3-483C-A762-38EE2D543EE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4029075" y="10182225"/>
+          <a:ext cx="895350" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="이등변 삼각형 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B0D7C88-20D4-49A7-8F6D-FC3ECD2FE49D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3562350" y="10325100"/>
+          <a:ext cx="285750" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="이등변 삼각형 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09AEDA4C-54AA-49AA-AD08-2DAE52B53F8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2162175" y="10325100"/>
+          <a:ext cx="285750" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="3678F1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3678F1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="이등변 삼각형 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D5C9990-72DD-42C9-85DD-EA5259DC3ABF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3562350" y="10325100"/>
+          <a:ext cx="285750" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="이등변 삼각형 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{321963B5-F01B-49DC-8C22-AC386EB0B370}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3562350" y="10325100"/>
+          <a:ext cx="285750" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="이등변 삼각형 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3AF7CFE-04B1-4B90-9983-379724C13AEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3562350" y="10325100"/>
+          <a:ext cx="285750" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="이등변 삼각형 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EAD7302-AD49-4687-ACE7-B2FF7E605B08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3562350" y="10325100"/>
+          <a:ext cx="285750" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="이등변 삼각형 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8911509-6B06-4542-8A8B-2BB1159E6118}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3562350" y="10325100"/>
+          <a:ext cx="285750" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="이등변 삼각형 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B20B4B59-5638-4EE2-BA47-8CACD9284A42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2162175" y="10325100"/>
+          <a:ext cx="285750" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="3678F1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3678F1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="이등변 삼각형 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98FA6185-CA62-4200-ACFF-CBA2CE5495CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2162175" y="10325100"/>
+          <a:ext cx="285750" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="3678F1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3678F1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="이등변 삼각형 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4877CF2-E7AA-45CC-B17E-6B7A928F800F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2162175" y="10325100"/>
+          <a:ext cx="285750" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="3678F1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3678F1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="이등변 삼각형 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC53A919-0022-4149-A026-64F01B58FB44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2162175" y="10325100"/>
+          <a:ext cx="285750" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="3678F1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3678F1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="이등변 삼각형 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E2ECD80-BC78-40FF-B06D-83DA328484A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2162175" y="10325100"/>
+          <a:ext cx="285750" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="3678F1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3678F1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{635CA9A0-8D31-41F3-A59F-9FE4FE181792}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143500" y="914400"/>
+          <a:ext cx="2457450" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="6495ED"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{939E3650-1300-4B40-8CC1-FB4907E785E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143500" y="914400"/>
+          <a:ext cx="2457450" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="6495ED"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA42F885-A2B6-48CF-87E8-E1CD4683FFEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143500" y="914400"/>
+          <a:ext cx="2457450" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="6495ED"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42CC4B49-31D7-4F53-B1B7-CE18831A1764}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143500" y="914400"/>
+          <a:ext cx="2457450" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="6495ED"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FF50E4B-92C2-D330-714D-ED085D640670}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5667375" y="4086225"/>
+          <a:ext cx="3333750" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>vector</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>는 확장할 때 필요한 만큼의 길이만큼 새로운 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>array</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>를 할당해서 복사하는 것이다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>따라서 메모리 전체를 복사해야한다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>하지만 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>deque</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>는 필요한 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>array</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>만큼만 붙이도록 만듬</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ADA3D1B-2FE5-4C85-AC5A-2461A09075BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143500" y="914400"/>
+          <a:ext cx="2457450" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="6495ED"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60D1DBAA-8843-4650-842A-3DC33D4A4487}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143500" y="914400"/>
+          <a:ext cx="2457450" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="6495ED"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54C8D657-6461-49E3-9A69-70B86DB5E0F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143500" y="914400"/>
+          <a:ext cx="2457450" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="6495ED"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3340,141 +4535,141 @@
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>3</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>4</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>6</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>7</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3497,6 +4692,103 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3223DD8B-A1C7-45C6-AA2E-038777BE51FF}">
+  <dimension ref="A1:Q59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="5.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="38"/>
+      <c r="M2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="13"/>
+    </row>
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="38"/>
+      <c r="H3" s="6"/>
+      <c r="M3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+    </row>
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="38"/>
+      <c r="H4" s="6"/>
+      <c r="M4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+    </row>
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="38"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="38"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="38"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="11" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1:A7" location="목차!A1" display="목차!A1" xr:uid="{16D4F984-5E70-4E5A-82E2-FB2A3777E4C6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53359E70-DA5A-4BCE-A940-CF5D8D1B11F9}">
   <dimension ref="A1:V125"/>
   <sheetViews>
@@ -3507,7 +4799,7 @@
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="3"/>
@@ -3533,7 +4825,7 @@
       <c r="V1" s="3"/>
     </row>
     <row r="2" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37"/>
+      <c r="A2" s="38"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -3557,7 +4849,7 @@
       <c r="U2" s="3"/>
     </row>
     <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -3581,7 +4873,7 @@
       <c r="U3" s="3"/>
     </row>
     <row r="4" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -3604,7 +4896,7 @@
       <c r="U4" s="3"/>
     </row>
     <row r="5" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -3622,7 +4914,7 @@
       <c r="U5" s="3"/>
     </row>
     <row r="6" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -3640,7 +4932,7 @@
       <c r="U6" s="3"/>
     </row>
     <row r="7" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
+      <c r="A7" s="38"/>
       <c r="H7" s="5"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -4146,12 +5438,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37"/>
+      <c r="A2" s="38"/>
       <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
@@ -4161,7 +5453,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
+      <c r="A3" s="38"/>
       <c r="H3" s="6"/>
       <c r="M3" s="14" t="s">
         <v>7</v>
@@ -4172,7 +5464,7 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
+      <c r="A4" s="38"/>
       <c r="H4" s="6"/>
       <c r="M4" s="10" t="s">
         <v>8</v>
@@ -4182,15 +5474,15 @@
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
+      <c r="A5" s="38"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
+      <c r="A6" s="38"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
+      <c r="A7" s="38"/>
       <c r="H7" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4220,11 +5512,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFF7ADC-9B90-43D2-923E-01DE6568B968}">
-  <dimension ref="A1:Q59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E7D2B5-3732-46A4-9814-CED24E1391C4}">
+  <dimension ref="A1:U59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4233,12 +5525,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37"/>
+      <c r="A2" s="38"/>
       <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
@@ -4248,7 +5540,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
+      <c r="A3" s="38"/>
       <c r="H3" s="6"/>
       <c r="M3" s="14" t="s">
         <v>7</v>
@@ -4259,7 +5551,7 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
+      <c r="A4" s="38"/>
       <c r="H4" s="6"/>
       <c r="M4" s="10" t="s">
         <v>8</v>
@@ -4269,20 +5561,20 @@
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
+      <c r="A5" s="38"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
+      <c r="A6" s="38"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
+      <c r="A7" s="38"/>
       <c r="H7" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -4291,17 +5583,12 @@
     </row>
     <row r="11" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="3" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="3" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4315,7 +5602,7 @@
     </row>
     <row r="19" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="14" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
@@ -4324,17 +5611,318 @@
     </row>
     <row r="21" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" s="3" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22" s="3" t="s">
-        <v>263</v>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+    </row>
+    <row r="31" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="33" spans="4:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="34" spans="4:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="35" spans="4:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="36" spans="4:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="37" spans="4:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="38" spans="4:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="4:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="40" spans="4:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D40" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="42" spans="4:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D42" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="44" spans="4:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E44" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="45" spans="4:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E45" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="U45" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="48" spans="4:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E48" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E50" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1:A7" location="목차!A1" display="목차!A1" xr:uid="{EEF3135D-7A97-4154-B9A1-7446E5F5A8C4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFF7ADC-9B90-43D2-923E-01DE6568B968}">
+  <dimension ref="A1:Q59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="5.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="38"/>
+      <c r="M2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="13"/>
+    </row>
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="38"/>
+      <c r="H3" s="6"/>
+      <c r="M3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+    </row>
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="38"/>
+      <c r="H4" s="6"/>
+      <c r="M4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+    </row>
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="38"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="38"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="38"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="11" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="19" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="21" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="3" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="14" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
@@ -4343,12 +5931,12 @@
     </row>
     <row r="26" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D26" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D27" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="59" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4368,12 +5956,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DCCDC4B-10B5-4FB8-B5BB-DE6FFA03CB16}">
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4382,12 +5970,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37"/>
+      <c r="A2" s="38"/>
       <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
@@ -4397,7 +5985,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
+      <c r="A3" s="38"/>
       <c r="H3" s="6"/>
       <c r="M3" s="14" t="s">
         <v>7</v>
@@ -4408,7 +5996,7 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
+      <c r="A4" s="38"/>
       <c r="H4" s="6"/>
       <c r="M4" s="10" t="s">
         <v>8</v>
@@ -4418,15 +6006,15 @@
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
+      <c r="A5" s="38"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
+      <c r="A6" s="38"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
+      <c r="A7" s="38"/>
       <c r="H7" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4586,71 +6174,135 @@
       </c>
     </row>
     <row r="47" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E47" s="39" t="s">
+      <c r="E47" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
     </row>
     <row r="48" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E48" s="39" t="s">
+      <c r="E48" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-    </row>
-    <row r="49" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E49" s="39" t="s">
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+    </row>
+    <row r="49" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-    </row>
-    <row r="50" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E50" s="39" t="s">
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+    </row>
+    <row r="50" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E50" s="34" t="s">
         <v>233</v>
       </c>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-    </row>
-    <row r="51" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E51" s="39" t="s">
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+    </row>
+    <row r="51" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E51" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-    </row>
-    <row r="52" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E52" s="39" t="s">
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+    </row>
+    <row r="52" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E52" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-    </row>
-    <row r="53" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E53" s="39" t="s">
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+    </row>
+    <row r="53" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E53" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-    </row>
-    <row r="54" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-    </row>
-    <row r="56" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+    </row>
+    <row r="54" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+    </row>
+    <row r="56" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D56" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="57" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D57" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D60" s="27"/>
+    <row r="60" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="13"/>
+    </row>
+    <row r="62" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+    </row>
+    <row r="64" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D64" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+    </row>
+    <row r="68" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D68" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D69" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D70" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D71" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="72" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D72" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="73" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D73" s="30" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="74" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D74" s="3" t="s">
+        <v>277</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4666,12 +6318,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74305CAB-EF31-4180-A9B1-F3B919031D3D}">
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4682,12 +6334,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37"/>
+      <c r="A2" s="38"/>
       <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
@@ -4697,7 +6349,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
+      <c r="A3" s="38"/>
       <c r="H3" s="6"/>
       <c r="M3" s="14" t="s">
         <v>7</v>
@@ -4708,7 +6360,7 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
+      <c r="A4" s="38"/>
       <c r="H4" s="6"/>
       <c r="M4" s="10" t="s">
         <v>8</v>
@@ -4719,15 +6371,15 @@
       <c r="Q4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
+      <c r="A5" s="38"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
+      <c r="A6" s="38"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
+      <c r="A7" s="38"/>
       <c r="H7" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5021,12 +6673,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27DC9AE-D3F3-4D99-93B4-7F898251C61F}">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5035,12 +6687,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37"/>
+      <c r="A2" s="38"/>
       <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
@@ -5050,7 +6702,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
+      <c r="A3" s="38"/>
       <c r="H3" s="6"/>
       <c r="M3" s="14" t="s">
         <v>7</v>
@@ -5061,7 +6713,7 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
+      <c r="A4" s="38"/>
       <c r="H4" s="6"/>
       <c r="M4" s="10" t="s">
         <v>8</v>
@@ -5071,15 +6723,15 @@
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
+      <c r="A5" s="38"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
+      <c r="A6" s="38"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
+      <c r="A7" s="38"/>
       <c r="H7" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5174,226 +6826,226 @@
       </c>
     </row>
     <row r="31" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E31" s="35" t="s">
+      <c r="E31" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35" t="s">
+      <c r="F31" s="36"/>
+      <c r="G31" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35" t="s">
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="35"/>
-      <c r="S31" s="35" t="s">
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="T31" s="35"/>
-      <c r="U31" s="35"/>
-      <c r="V31" s="35"/>
-      <c r="W31" s="35"/>
-      <c r="X31" s="35"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="36"/>
     </row>
     <row r="32" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E32" s="35" t="s">
+      <c r="E32" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="F32" s="35"/>
-      <c r="G32" s="38" t="s">
+      <c r="F32" s="36"/>
+      <c r="G32" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="38" t="s">
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="35"/>
-      <c r="S32" s="38" t="s">
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="T32" s="35"/>
-      <c r="U32" s="35"/>
-      <c r="V32" s="35"/>
-      <c r="W32" s="35"/>
-      <c r="X32" s="35"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="36"/>
     </row>
     <row r="33" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="35"/>
-      <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="35"/>
-      <c r="W33" s="35"/>
-      <c r="X33" s="35"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="36"/>
     </row>
     <row r="34" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="35"/>
-      <c r="S34" s="35"/>
-      <c r="T34" s="35"/>
-      <c r="U34" s="35"/>
-      <c r="V34" s="35"/>
-      <c r="W34" s="35"/>
-      <c r="X34" s="35"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="36"/>
     </row>
     <row r="35" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="35"/>
-      <c r="R35" s="35"/>
-      <c r="S35" s="35"/>
-      <c r="T35" s="35"/>
-      <c r="U35" s="35"/>
-      <c r="V35" s="35"/>
-      <c r="W35" s="35"/>
-      <c r="X35" s="35"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
     </row>
     <row r="36" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E36" s="35" t="s">
+      <c r="E36" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="F36" s="35"/>
-      <c r="G36" s="38" t="s">
+      <c r="F36" s="36"/>
+      <c r="G36" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="38" t="s">
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="35"/>
-      <c r="S36" s="38" t="s">
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="T36" s="35"/>
-      <c r="U36" s="35"/>
-      <c r="V36" s="35"/>
-      <c r="W36" s="35"/>
-      <c r="X36" s="35"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="36"/>
     </row>
     <row r="37" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="35"/>
-      <c r="S37" s="35"/>
-      <c r="T37" s="35"/>
-      <c r="U37" s="35"/>
-      <c r="V37" s="35"/>
-      <c r="W37" s="35"/>
-      <c r="X37" s="35"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36"/>
     </row>
     <row r="38" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="35"/>
-      <c r="R38" s="35"/>
-      <c r="S38" s="35"/>
-      <c r="T38" s="35"/>
-      <c r="U38" s="35"/>
-      <c r="V38" s="35"/>
-      <c r="W38" s="35"/>
-      <c r="X38" s="35"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="36"/>
+      <c r="T38" s="36"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="36"/>
     </row>
     <row r="39" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="35"/>
-      <c r="S39" s="35"/>
-      <c r="T39" s="35"/>
-      <c r="U39" s="35"/>
-      <c r="V39" s="35"/>
-      <c r="W39" s="35"/>
-      <c r="X39" s="35"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="36"/>
+      <c r="T39" s="36"/>
+      <c r="U39" s="36"/>
+      <c r="V39" s="36"/>
+      <c r="W39" s="36"/>
+      <c r="X39" s="36"/>
     </row>
     <row r="41" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="14" t="s">
@@ -5511,6 +7163,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:A7"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:X31"/>
     <mergeCell ref="E36:F39"/>
     <mergeCell ref="G32:L35"/>
     <mergeCell ref="G36:L39"/>
@@ -5519,11 +7176,6 @@
     <mergeCell ref="M36:R39"/>
     <mergeCell ref="S36:X39"/>
     <mergeCell ref="E32:F35"/>
-    <mergeCell ref="A1:A7"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:X31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -5535,7 +7187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5CE60D-3F10-4903-B885-6CDA794FB40F}">
   <dimension ref="A1:Q83"/>
   <sheetViews>
@@ -5549,12 +7201,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37"/>
+      <c r="A2" s="38"/>
       <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
@@ -5564,7 +7216,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
+      <c r="A3" s="38"/>
       <c r="E3" s="6"/>
       <c r="H3" s="6"/>
       <c r="M3" s="14" t="s">
@@ -5576,7 +7228,7 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
+      <c r="A4" s="38"/>
       <c r="E4" s="6"/>
       <c r="H4" s="6"/>
       <c r="M4" s="10" t="s">
@@ -5587,17 +7239,17 @@
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
+      <c r="A5" s="38"/>
       <c r="E5" s="6"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
+      <c r="A6" s="38"/>
       <c r="E6" s="6"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
+      <c r="A7" s="38"/>
       <c r="H7" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5846,7 +7498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8709AF78-8857-4867-B1DD-14A6DFC4B711}">
   <dimension ref="A1:Q65"/>
   <sheetViews>
@@ -5860,12 +7512,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37"/>
+      <c r="A2" s="38"/>
       <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
@@ -5875,7 +7527,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
+      <c r="A3" s="38"/>
       <c r="H3" s="6"/>
       <c r="M3" s="14" t="s">
         <v>7</v>
@@ -5886,7 +7538,7 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
+      <c r="A4" s="38"/>
       <c r="H4" s="6"/>
       <c r="M4" s="10" t="s">
         <v>8</v>
@@ -5896,15 +7548,15 @@
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
+      <c r="A5" s="38"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
+      <c r="A6" s="38"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
+      <c r="A7" s="38"/>
       <c r="H7" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5957,7 +7609,7 @@
     </row>
     <row r="22" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -5966,12 +7618,12 @@
     </row>
     <row r="24" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5979,12 +7631,12 @@
         <v>10</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -5993,12 +7645,12 @@
     </row>
     <row r="30" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6006,12 +7658,12 @@
         <v>10</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
@@ -6020,12 +7672,12 @@
     </row>
     <row r="36" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6033,12 +7685,12 @@
         <v>10</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E39" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="65" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6056,91 +7708,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3223DD8B-A1C7-45C6-AA2E-038777BE51FF}">
-  <dimension ref="A1:Q59"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="5.625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37"/>
-      <c r="M2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="13"/>
-    </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
-      <c r="H3" s="6"/>
-      <c r="M3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-    </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
-      <c r="H4" s="6"/>
-      <c r="M4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-    </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="59" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D59" s="27"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:A7"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1:A7" location="목차!A1" display="목차!A1" xr:uid="{16D4F984-5E70-4E5A-82E2-FB2A3777E4C6}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/정리.xlsx
+++ b/정리.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KDJ\Desktop\algorithm-practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409C4CCD-DFF7-465E-8B27-B996BED266F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938A7E82-86DE-4029-A2EF-2F29BE89379E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="855" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="855" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="1" r:id="rId1"/>
     <sheet name="temp" sheetId="3" r:id="rId2"/>
-    <sheet name="greedy" sheetId="30" r:id="rId3"/>
-    <sheet name="bruteForce" sheetId="28" r:id="rId4"/>
-    <sheet name="sort" sheetId="26" r:id="rId5"/>
-    <sheet name="heap" sheetId="25" r:id="rId6"/>
-    <sheet name="stack-queue" sheetId="24" r:id="rId7"/>
-    <sheet name="hash" sheetId="23" r:id="rId8"/>
-    <sheet name="기타 팁" sheetId="27" r:id="rId9"/>
-    <sheet name="실수목록" sheetId="29" r:id="rId10"/>
-    <sheet name="커밋컨벤션" sheetId="19" r:id="rId11"/>
+    <sheet name="DFS,BFS" sheetId="32" r:id="rId3"/>
+    <sheet name="dynamicProgramming" sheetId="31" r:id="rId4"/>
+    <sheet name="greedy" sheetId="30" r:id="rId5"/>
+    <sheet name="bruteForce" sheetId="28" r:id="rId6"/>
+    <sheet name="sort" sheetId="26" r:id="rId7"/>
+    <sheet name="heap" sheetId="25" r:id="rId8"/>
+    <sheet name="stack-queue" sheetId="24" r:id="rId9"/>
+    <sheet name="hash" sheetId="23" r:id="rId10"/>
+    <sheet name="기타 팁" sheetId="27" r:id="rId11"/>
+    <sheet name="실수목록" sheetId="29" r:id="rId12"/>
+    <sheet name="커밋컨벤션" sheetId="19" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="424">
   <si>
     <t>NO</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1894,12 +1896,1497 @@
     <t>그래서 이 두 값을 담아서 잘 계산하여 만들었음.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>DynamicProgramming</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동적 계획법은 DivideAndConquer와 비슷하지만 조금 다르다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동적 계획법의 가장 큰 특징은 작은 문제의 반복이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동적 계획법을 작성할 때는 다음과 같은 순서로 생각하면 좋다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 반복되는 관계(최적의 구조) 파악하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 테이블 구성하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 테이블 채우는 순서 생각하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>map에서 특정 key를 찾는 함수인 find()함수가 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 key가 map에 존재하는 경우 그 원소에 대한 iterator를 반환하고, 존재하지 않는 경우 map.end()를 반환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eg) if (myMap.find(key) == myMap.end()) { ~~~}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>set에 insert를 하는데 이미 있는 값이라면 들어가지 않는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 반환 값은 pair객체로, 첫 번째 인자는 삽입하려 한(삽입된) 원소의 iterator고 두 번째 인자는 성공 여부이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>set 관련 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>map 관련 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>set은 정렬되어서 있는 container이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>따라서 insert, delete, find등을 하는 데 소요되는 시간은 O(log N)이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>set에서 특정 원소를 찾으려면 find나 count둘 모두 사용할 수 있지만</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>find를 사용하는 것이 가독성이 좋다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. N으로 표현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음에 문제 잘못 읽었음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사칙연산을 사용한 횟수로 읽어서 더 어렵고 큰 문제를 풀었음.(성공은 한듯)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자를 사용한 횟수에 따라 그룹을 만들었음(vector로)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 그 vector들을 담을 vector&lt;int&gt;의 벡터인 numberCountGroup을 만듦.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 사칙연산이 아닌 반복으로 만들어지는 수 (55, 555, 5555같은 것들)를 고려하는데</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제에서 제공한 limit인 32000을 넘는 수는 만들지 않았음(생각해보니 만들어야 하네…)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이는 반복문으로 만들어서 반복으로만들어지는수 deque에 넣어서 하나씩 빼면서 각 그룹에 넣음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i회 사용 그룹과 j회 사용그룹으로 i+j회 사용 그룹을 만들어야 하기에</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 그룹을 만들 때마다 돌아가면서 만들었음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 그룹의 수를 2중반복문으로 돌아가면서 +, -, x, / 연산을 하면서 set에 넣고(-나 /는 교환법칙 조심)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 set으로 지금껏 없던 수면 다음 그룹에 넣어야 함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금껏 없던 수만 그룹에 넣기위함과, 답인 횟수를 출력을 동시에 처리하기 위해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>map으로 key는 만든 수, value로는 사용한 숫자의 횟수로 만들었음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래서 set에서 map에 key가 있으면 이미 만든수이기에 다음 그룹에 넣지 않고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>key가 없으면 map에 추가하면서 다음 그룹에도 넣는 식으로 반복함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 정수삼각형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이게 왜 동적계획법이지..??</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무튼 위에서부터 돌아가면서 그냥 만들었음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구조가 단순해서 다시 읽으면 알듯.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>set&lt;pair&lt;int, int&gt;&gt; mySet으로 선언한 set에서 find함수를 하거나 할 때</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>즉 무명의 pair가 필요할 때</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>make_pair(a, b)하지 않고 {a, b}라고 해도 됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시 무명 pair</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS / BFS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래프는 연결되어 있는 원소간의 관계를 표현한 자료구조임.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래프는 정점(vertex)과 간선(edge)로 구분함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래프의 종류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방향 / 무방향 그래프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>edge는 방향을 가질 수도 있고 방향이 없을 수도 있음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유무에 따라서 방향(directed) / 무방향(undirected) 그래프라고 함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가중 그래프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>edge에 가중치(weight)를 할당함 그래프를 가중 그래프(weight graph)라고 함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래프의 종류는 다양하지만, 문제풀이에 사용되는 것들만 기술하겠음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래프 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스의 멤버 초기화 리스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++에서는 구조체도 클래스와 마찬가지로 사용 가능.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성자를 이용해서 인스턴스 멤버를 한번에 초기화할 수 있음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예를 들어 내가 Graph라는 새로운 클래스를 만드는데</t>
+  </si>
+  <si>
+    <t>int형 변수인 vertices와 인접리스트인 vector&lt;vector&lt;int&gt;&gt; adjList를 가지고 있다고 하자.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 때 생성자로 int값을 받으면 vertices에 넣고, adjList를 그 값의 크기로 만든다고 하자.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러면 다음의 두 방법으로 만드는 것이 가능하다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>멤버 초기화 리스트 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Graph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> vertices;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> adjList;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Graph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>vertices</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(N), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>adjList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(N) {}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Graph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        vertices </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> N;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>tempVec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(N);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        adjList </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> tempVec;</t>
+    </r>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>멤버 초기화 리스트 미사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 때 멤버 초기화 리스트를 사용하는 것이 효율적이다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>만들어 지는 것은 같지만 오른쪽의 경우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스가 생성되면서 변수인 vertices가 만들어지고 adjList가 만들어지고 난 후</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성자의 실행부에서 새로운 List를 다시 만든 후 할당하기에 시간, 메모리 낭비가 생김.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래프 구현은 여러가지로 할 수 있지만 vertices마다 가지는 인접 리스트를 만듦으로써도 구현가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인접 리스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음은 vetex가 pair&lt;int, int&gt;일 때 Graph 클래스를 구현 한 것이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>private:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> width;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> height;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pair</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pair</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&gt;&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> adjList;</t>
+    </r>
+  </si>
+  <si>
+    <t>public:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Graph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&gt;&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>maps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>width</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(m), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>height</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(n), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>adjList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>() {</t>
+    </r>
+  </si>
+  <si>
+    <t>        //  Edge들을 추가하는 로직 구현</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>addEdge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pair</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>edge1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pair</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>edge2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>adjList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[edge1].</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>push_back</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(edge2);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>adjList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[edge2].</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>push_back</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(edge1);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">    //무방향</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjList는 vector&lt;vector&lt;pair&lt;int,int&gt;&gt;도 가능하고 어쩌고~~</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS와 BFS모두 그래프에서 탐색하는 방법이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS는 깊이 탐색으로 하나씩 깊이 탐색하면서 진행한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>따라서 보통 재귀함수로 많이 작성하지만, 때에 따라 반복문으로 작성할 수도 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS는 넓이 탐색으로 그 다음으로 탐색할 것을 Queue에 하나씩 넣으며 그 Queue에서 하나씩 빼며 다음 단계를 진행한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS는 Stack을 사용하여 top에서 그 다음단계를 탐색하고 그 다음단계를 탐색하고 … 으로 진행된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>따라서 while (myQueue.empty()) { … } 으로 작성한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>둘 모두 visited를 잘 설정하여 방문했던 곳을 또 방문하여 무한 루프나 시간 손해를 보지 않도록 조심해야 한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS는 queue로 다음 탐색 대상을 관리하는 것이 가장 큰 특징이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 단계 탐색대상에서는 인접한 vertex에 대해 visited가 false라면 queue에 추가하며 visisted를 수정하는 것을</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>queue가 빌 때까지 혹은 탐색 대상에 도달할 때까지 반복하면 된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 게임 맵 최단거리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음에 일부러 그래프 클래스를 정의하는 것을 시도해보았다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간초과가 뜨기에 전에 했던 방식인 arr[][]를 이용하는 것 처럼 해보았다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>array대신 vector를 사용하는 것에 익숙해지기 위해 array대신 vector&lt;vector&lt;&gt;&gt;를 사용했다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제는 단순해서 특이사항은 없다. 탐색 문제의 기본같은 느낌.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 BFS가 더 유리한 구조라고 생각했다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜냐면 이동거리의 최소를 찾는거라서 DFS는 도착지점에 도달해도 이것이 최단거리라는 보장이 없다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS는 도착지점에 도달한 순간 그 횟수가 무조건 최소이기에 반복을 그만할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2041,6 +3528,20 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF008000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2187,7 +3688,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2293,6 +3794,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2307,6 +3811,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2405,6 +3945,148 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60D1DBAA-8843-4650-842A-3DC33D4A4487}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143500" y="914400"/>
+          <a:ext cx="2457450" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="6495ED"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54C8D657-6461-49E3-9A69-70B86DB5E0F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143500" y="914400"/>
+          <a:ext cx="2457450" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="6495ED"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2608,6 +4290,214 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA02FD81-C6B1-4FCC-83C4-2DA397C06454}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143500" y="914400"/>
+          <a:ext cx="2457450" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="6495ED"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="직사각형 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93E32D2C-CEE2-452F-BBB8-C5E9C1DC2CBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343149" y="8210550"/>
+          <a:ext cx="4181475" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="6495ED"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0DA10F6-2361-4D05-A7A8-876167F10CF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143500" y="914400"/>
+          <a:ext cx="2457450" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="6495ED"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3622,7 +5512,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3693,7 +5583,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3764,7 +5654,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3835,7 +5725,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4029,7 +5919,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4050,148 +5940,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ADA3D1B-2FE5-4C85-AC5A-2461A09075BA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5143500" y="914400"/>
-          <a:ext cx="2457450" cy="723900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="50800">
-          <a:solidFill>
-            <a:srgbClr val="6495ED"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="직사각형 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60D1DBAA-8843-4650-842A-3DC33D4A4487}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5143500" y="914400"/>
-          <a:ext cx="2457450" cy="723900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="50800">
-          <a:solidFill>
-            <a:srgbClr val="6495ED"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="직사각형 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54C8D657-6461-49E3-9A69-70B86DB5E0F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4535,141 +6283,141 @@
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>3</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>4</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>6</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>7</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4692,6 +6440,942 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5CE60D-3F10-4903-B885-6CDA794FB40F}">
+  <dimension ref="A1:Q94"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="5.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="39"/>
+      <c r="M2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="13"/>
+    </row>
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="39"/>
+      <c r="E3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="M3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+    </row>
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="39"/>
+      <c r="E4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="M4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+    </row>
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="39"/>
+      <c r="E5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="39"/>
+      <c r="E6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="39"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="11" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="C19" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+    </row>
+    <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="30"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+    </row>
+    <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+    </row>
+    <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+    </row>
+    <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="35"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+    </row>
+    <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+    </row>
+    <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+    </row>
+    <row r="33" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="35"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+    </row>
+    <row r="34" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+    </row>
+    <row r="35" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="35"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+    </row>
+    <row r="36" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E37" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+    </row>
+    <row r="41" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E42" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D45" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D46" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D48" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F50" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F51" s="29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F52" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F53" s="29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D54" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F54" s="29"/>
+    </row>
+    <row r="55" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F55" s="29"/>
+    </row>
+    <row r="56" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D56" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+    </row>
+    <row r="57" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G57" s="29"/>
+    </row>
+    <row r="58" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E58" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="G58" s="29"/>
+    </row>
+    <row r="59" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E59" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G59" s="29"/>
+    </row>
+    <row r="60" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F60" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="G60" s="29"/>
+    </row>
+    <row r="61" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F61" s="29"/>
+    </row>
+    <row r="62" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="13"/>
+    </row>
+    <row r="63" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F63" s="29"/>
+    </row>
+    <row r="64" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+    </row>
+    <row r="66" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D66" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+    </row>
+    <row r="70" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D70" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D91" s="27"/>
+    </row>
+    <row r="92" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D92" s="27"/>
+    </row>
+    <row r="93" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D93" s="27"/>
+    </row>
+    <row r="94" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D94" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1:A7" location="목차!A1" display="목차!A1" xr:uid="{F10F27C0-1280-4C11-88CE-AF0E165BEE27}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8709AF78-8857-4867-B1DD-14A6DFC4B711}">
+  <dimension ref="A1:U71"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="5.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="39"/>
+      <c r="M2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="13"/>
+    </row>
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="39"/>
+      <c r="H3" s="6"/>
+      <c r="M3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+    </row>
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="39"/>
+      <c r="H4" s="6"/>
+      <c r="M4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+    </row>
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="39"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="39"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="39"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="11" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="19" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="24" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="30" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="36" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="13"/>
+    </row>
+    <row r="43" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="13"/>
+    </row>
+    <row r="49" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="57" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D57" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D58" s="45" t="s">
+        <v>376</v>
+      </c>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="41"/>
+      <c r="L58" s="42"/>
+      <c r="N58" s="45" t="s">
+        <v>376</v>
+      </c>
+      <c r="O58" s="41"/>
+      <c r="P58" s="41"/>
+      <c r="Q58" s="41"/>
+      <c r="R58" s="41"/>
+      <c r="S58" s="41"/>
+      <c r="T58" s="41"/>
+      <c r="U58" s="42"/>
+    </row>
+    <row r="59" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="46" t="s">
+        <v>377</v>
+      </c>
+      <c r="E59" s="47"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="47"/>
+      <c r="I59" s="47"/>
+      <c r="J59" s="47"/>
+      <c r="K59" s="47"/>
+      <c r="L59" s="48"/>
+      <c r="N59" s="46" t="s">
+        <v>377</v>
+      </c>
+      <c r="O59" s="47"/>
+      <c r="P59" s="47"/>
+      <c r="Q59" s="47"/>
+      <c r="R59" s="47"/>
+      <c r="S59" s="47"/>
+      <c r="T59" s="47"/>
+      <c r="U59" s="48"/>
+    </row>
+    <row r="60" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D60" s="46" t="s">
+        <v>378</v>
+      </c>
+      <c r="E60" s="47"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="47"/>
+      <c r="H60" s="47"/>
+      <c r="I60" s="47"/>
+      <c r="J60" s="47"/>
+      <c r="K60" s="47"/>
+      <c r="L60" s="48"/>
+      <c r="N60" s="46" t="s">
+        <v>378</v>
+      </c>
+      <c r="O60" s="47"/>
+      <c r="P60" s="47"/>
+      <c r="Q60" s="47"/>
+      <c r="R60" s="47"/>
+      <c r="S60" s="47"/>
+      <c r="T60" s="47"/>
+      <c r="U60" s="48"/>
+    </row>
+    <row r="61" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D61" s="49"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="47"/>
+      <c r="J61" s="47"/>
+      <c r="K61" s="47"/>
+      <c r="L61" s="48"/>
+      <c r="N61" s="46" t="s">
+        <v>380</v>
+      </c>
+      <c r="O61" s="47"/>
+      <c r="P61" s="47"/>
+      <c r="Q61" s="47"/>
+      <c r="R61" s="47"/>
+      <c r="S61" s="47"/>
+      <c r="T61" s="47"/>
+      <c r="U61" s="48"/>
+    </row>
+    <row r="62" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D62" s="46" t="s">
+        <v>379</v>
+      </c>
+      <c r="E62" s="47"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="47"/>
+      <c r="I62" s="47"/>
+      <c r="J62" s="47"/>
+      <c r="K62" s="47"/>
+      <c r="L62" s="48"/>
+      <c r="N62" s="46" t="s">
+        <v>381</v>
+      </c>
+      <c r="O62" s="47"/>
+      <c r="P62" s="47"/>
+      <c r="Q62" s="47"/>
+      <c r="R62" s="47"/>
+      <c r="S62" s="47"/>
+      <c r="T62" s="47"/>
+      <c r="U62" s="48"/>
+    </row>
+    <row r="63" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D63" s="46" t="s">
+        <v>384</v>
+      </c>
+      <c r="E63" s="47"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="47"/>
+      <c r="I63" s="47"/>
+      <c r="J63" s="47"/>
+      <c r="K63" s="47"/>
+      <c r="L63" s="48"/>
+      <c r="N63" s="46" t="s">
+        <v>382</v>
+      </c>
+      <c r="O63" s="47"/>
+      <c r="P63" s="47"/>
+      <c r="Q63" s="47"/>
+      <c r="R63" s="47"/>
+      <c r="S63" s="47"/>
+      <c r="T63" s="47"/>
+      <c r="U63" s="48"/>
+    </row>
+    <row r="64" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D64" s="21"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="43"/>
+      <c r="H64" s="43"/>
+      <c r="I64" s="43"/>
+      <c r="J64" s="43"/>
+      <c r="K64" s="43"/>
+      <c r="L64" s="44"/>
+      <c r="N64" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="O64" s="47"/>
+      <c r="P64" s="47"/>
+      <c r="Q64" s="47"/>
+      <c r="R64" s="47"/>
+      <c r="S64" s="47"/>
+      <c r="T64" s="47"/>
+      <c r="U64" s="48"/>
+    </row>
+    <row r="65" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N65" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="O65" s="47"/>
+      <c r="P65" s="47"/>
+      <c r="Q65" s="47"/>
+      <c r="R65" s="47"/>
+      <c r="S65" s="47"/>
+      <c r="T65" s="47"/>
+      <c r="U65" s="48"/>
+    </row>
+    <row r="66" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N66" s="46" t="s">
+        <v>384</v>
+      </c>
+      <c r="O66" s="47"/>
+      <c r="P66" s="47"/>
+      <c r="Q66" s="47"/>
+      <c r="R66" s="47"/>
+      <c r="S66" s="47"/>
+      <c r="T66" s="47"/>
+      <c r="U66" s="48"/>
+    </row>
+    <row r="67" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N67" s="21"/>
+      <c r="O67" s="43"/>
+      <c r="P67" s="43"/>
+      <c r="Q67" s="43"/>
+      <c r="R67" s="43"/>
+      <c r="S67" s="43"/>
+      <c r="T67" s="43"/>
+      <c r="U67" s="44"/>
+    </row>
+    <row r="68" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="69" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="70" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C70" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="71" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C71" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1:A7" location="목차!A1" display="목차!A1" xr:uid="{0EB83592-1433-4420-8FD0-0C458FCD1823}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3223DD8B-A1C7-45C6-AA2E-038777BE51FF}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
@@ -4705,12 +7389,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
+      <c r="A2" s="39"/>
       <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
@@ -4720,7 +7404,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
+      <c r="A3" s="39"/>
       <c r="H3" s="6"/>
       <c r="M3" s="14" t="s">
         <v>7</v>
@@ -4731,7 +7415,7 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
+      <c r="A4" s="39"/>
       <c r="H4" s="6"/>
       <c r="M4" s="10" t="s">
         <v>8</v>
@@ -4741,15 +7425,15 @@
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
+      <c r="A5" s="39"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
+      <c r="A6" s="39"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
       <c r="H7" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4788,7 +7472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53359E70-DA5A-4BCE-A940-CF5D8D1B11F9}">
   <dimension ref="A1:V125"/>
   <sheetViews>
@@ -4799,7 +7483,7 @@
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="3"/>
@@ -4825,7 +7509,7 @@
       <c r="V1" s="3"/>
     </row>
     <row r="2" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
+      <c r="A2" s="39"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -4849,7 +7533,7 @@
       <c r="U2" s="3"/>
     </row>
     <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -4873,7 +7557,7 @@
       <c r="U3" s="3"/>
     </row>
     <row r="4" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -4896,7 +7580,7 @@
       <c r="U4" s="3"/>
     </row>
     <row r="5" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -4914,7 +7598,7 @@
       <c r="U5" s="3"/>
     </row>
     <row r="6" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -4932,7 +7616,7 @@
       <c r="U6" s="3"/>
     </row>
     <row r="7" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
       <c r="H7" s="5"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -5438,12 +8122,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
+      <c r="A2" s="39"/>
       <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
@@ -5453,7 +8137,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
+      <c r="A3" s="39"/>
       <c r="H3" s="6"/>
       <c r="M3" s="14" t="s">
         <v>7</v>
@@ -5464,7 +8148,7 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
+      <c r="A4" s="39"/>
       <c r="H4" s="6"/>
       <c r="M4" s="10" t="s">
         <v>8</v>
@@ -5474,15 +8158,15 @@
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
+      <c r="A5" s="39"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
+      <c r="A6" s="39"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
       <c r="H7" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5512,11 +8196,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E7D2B5-3732-46A4-9814-CED24E1391C4}">
-  <dimension ref="A1:U59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD41A1E1-188A-4F1E-BBC7-E090551937C4}">
+  <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P82" sqref="P82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5525,12 +8209,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
+      <c r="A2" s="39"/>
       <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
@@ -5540,7 +8224,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
+      <c r="A3" s="39"/>
       <c r="H3" s="6"/>
       <c r="M3" s="14" t="s">
         <v>7</v>
@@ -5551,7 +8235,7 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
+      <c r="A4" s="39"/>
       <c r="H4" s="6"/>
       <c r="M4" s="10" t="s">
         <v>8</v>
@@ -5559,17 +8243,983 @@
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
+      <c r="A5" s="39"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
+      <c r="A6" s="39"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="11" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+    </row>
+    <row r="27" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="29" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="33" spans="6:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F33" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="6:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F34" s="45" t="s">
+        <v>376</v>
+      </c>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="41"/>
+      <c r="S34" s="41"/>
+      <c r="T34" s="41"/>
+      <c r="U34" s="42"/>
+    </row>
+    <row r="35" spans="6:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F35" s="50" t="s">
+        <v>393</v>
+      </c>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="47"/>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="47"/>
+      <c r="S35" s="47"/>
+      <c r="T35" s="47"/>
+      <c r="U35" s="48"/>
+    </row>
+    <row r="36" spans="6:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F36" s="46" t="s">
+        <v>394</v>
+      </c>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="47"/>
+      <c r="Q36" s="47"/>
+      <c r="R36" s="47"/>
+      <c r="S36" s="47"/>
+      <c r="T36" s="47"/>
+      <c r="U36" s="48"/>
+    </row>
+    <row r="37" spans="6:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F37" s="46" t="s">
+        <v>395</v>
+      </c>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="47"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="47"/>
+      <c r="R37" s="47"/>
+      <c r="S37" s="47"/>
+      <c r="T37" s="47"/>
+      <c r="U37" s="48"/>
+    </row>
+    <row r="38" spans="6:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F38" s="46" t="s">
+        <v>396</v>
+      </c>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="47"/>
+      <c r="O38" s="47"/>
+      <c r="P38" s="47"/>
+      <c r="Q38" s="47"/>
+      <c r="R38" s="47"/>
+      <c r="S38" s="47"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="48"/>
+    </row>
+    <row r="39" spans="6:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F39" s="49"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="47"/>
+      <c r="R39" s="47"/>
+      <c r="S39" s="47"/>
+      <c r="T39" s="47"/>
+      <c r="U39" s="48"/>
+    </row>
+    <row r="40" spans="6:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F40" s="50" t="s">
+        <v>397</v>
+      </c>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="47"/>
+      <c r="P40" s="47"/>
+      <c r="Q40" s="47"/>
+      <c r="R40" s="47"/>
+      <c r="S40" s="47"/>
+      <c r="T40" s="47"/>
+      <c r="U40" s="48"/>
+    </row>
+    <row r="41" spans="6:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F41" s="49"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="47"/>
+      <c r="P41" s="47"/>
+      <c r="Q41" s="47"/>
+      <c r="R41" s="47"/>
+      <c r="S41" s="47"/>
+      <c r="T41" s="47"/>
+      <c r="U41" s="48"/>
+    </row>
+    <row r="42" spans="6:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F42" s="46" t="s">
+        <v>398</v>
+      </c>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="47"/>
+      <c r="O42" s="47"/>
+      <c r="P42" s="47"/>
+      <c r="Q42" s="47"/>
+      <c r="R42" s="47"/>
+      <c r="S42" s="47"/>
+      <c r="T42" s="47"/>
+      <c r="U42" s="48"/>
+    </row>
+    <row r="43" spans="6:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F43" s="49"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="47"/>
+      <c r="O43" s="47"/>
+      <c r="P43" s="47"/>
+      <c r="Q43" s="47"/>
+      <c r="R43" s="47"/>
+      <c r="S43" s="47"/>
+      <c r="T43" s="47"/>
+      <c r="U43" s="48"/>
+    </row>
+    <row r="44" spans="6:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="51" t="s">
+        <v>399</v>
+      </c>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="47"/>
+      <c r="P44" s="47"/>
+      <c r="Q44" s="47"/>
+      <c r="R44" s="47"/>
+      <c r="S44" s="47"/>
+      <c r="T44" s="47"/>
+      <c r="U44" s="48"/>
+    </row>
+    <row r="45" spans="6:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F45" s="49"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="47"/>
+      <c r="P45" s="47"/>
+      <c r="Q45" s="47"/>
+      <c r="R45" s="47"/>
+      <c r="S45" s="47"/>
+      <c r="T45" s="47"/>
+      <c r="U45" s="48"/>
+    </row>
+    <row r="46" spans="6:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F46" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="47"/>
+      <c r="O46" s="47"/>
+      <c r="P46" s="47"/>
+      <c r="Q46" s="47"/>
+      <c r="R46" s="47"/>
+      <c r="S46" s="47"/>
+      <c r="T46" s="47"/>
+      <c r="U46" s="48"/>
+    </row>
+    <row r="47" spans="6:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F47" s="49"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="47"/>
+      <c r="N47" s="47"/>
+      <c r="O47" s="47"/>
+      <c r="P47" s="47"/>
+      <c r="Q47" s="47"/>
+      <c r="R47" s="47"/>
+      <c r="S47" s="47"/>
+      <c r="T47" s="47"/>
+      <c r="U47" s="48"/>
+    </row>
+    <row r="48" spans="6:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F48" s="46" t="s">
+        <v>400</v>
+      </c>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="47"/>
+      <c r="O48" s="47"/>
+      <c r="P48" s="47"/>
+      <c r="Q48" s="47"/>
+      <c r="R48" s="47"/>
+      <c r="S48" s="47"/>
+      <c r="T48" s="47"/>
+      <c r="U48" s="48"/>
+    </row>
+    <row r="49" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F49" s="46" t="s">
+        <v>401</v>
+      </c>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="47"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="47"/>
+      <c r="N49" s="47"/>
+      <c r="O49" s="47"/>
+      <c r="P49" s="47"/>
+      <c r="Q49" s="47"/>
+      <c r="R49" s="47"/>
+      <c r="S49" s="47"/>
+      <c r="T49" s="47"/>
+      <c r="U49" s="48"/>
+    </row>
+    <row r="50" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F50" s="46" t="s">
+        <v>402</v>
+      </c>
+      <c r="G50" s="47"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="47"/>
+      <c r="N50" s="47"/>
+      <c r="O50" s="47"/>
+      <c r="P50" s="47"/>
+      <c r="Q50" s="47"/>
+      <c r="R50" s="47"/>
+      <c r="S50" s="47"/>
+      <c r="T50" s="47"/>
+      <c r="U50" s="48"/>
+    </row>
+    <row r="51" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F51" s="46" t="s">
+        <v>403</v>
+      </c>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="47"/>
+      <c r="M51" s="47"/>
+      <c r="N51" s="47"/>
+      <c r="O51" s="47"/>
+      <c r="P51" s="47"/>
+      <c r="Q51" s="47"/>
+      <c r="R51" s="47"/>
+      <c r="S51" s="47"/>
+      <c r="T51" s="47"/>
+      <c r="U51" s="48"/>
+    </row>
+    <row r="52" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F52" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="47"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="47"/>
+      <c r="M52" s="47"/>
+      <c r="N52" s="47"/>
+      <c r="O52" s="47"/>
+      <c r="P52" s="47"/>
+      <c r="Q52" s="47"/>
+      <c r="R52" s="47"/>
+      <c r="S52" s="47"/>
+      <c r="T52" s="47"/>
+      <c r="U52" s="48"/>
+    </row>
+    <row r="53" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F53" s="49" t="s">
+        <v>404</v>
+      </c>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="47"/>
+      <c r="L53" s="47"/>
+      <c r="M53" s="47"/>
+      <c r="N53" s="47"/>
+      <c r="O53" s="47"/>
+      <c r="P53" s="47"/>
+      <c r="Q53" s="47"/>
+      <c r="R53" s="47"/>
+      <c r="S53" s="47"/>
+      <c r="T53" s="47"/>
+      <c r="U53" s="48"/>
+    </row>
+    <row r="54" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F54" s="52" t="s">
+        <v>384</v>
+      </c>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="43"/>
+      <c r="M54" s="43"/>
+      <c r="N54" s="43"/>
+      <c r="O54" s="43"/>
+      <c r="P54" s="43"/>
+      <c r="Q54" s="43"/>
+      <c r="R54" s="43"/>
+      <c r="S54" s="43"/>
+      <c r="T54" s="43"/>
+      <c r="U54" s="44"/>
+    </row>
+    <row r="55" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D55" s="27"/>
+    </row>
+    <row r="56" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="13"/>
+    </row>
+    <row r="58" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="60" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="61" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="62" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="64" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+    </row>
+    <row r="74" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C74" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+    </row>
+    <row r="76" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D76" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="77" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D77" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="78" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D78" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="13"/>
+    </row>
+    <row r="84" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C84" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+    </row>
+    <row r="86" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D86" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D87" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D88" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D90" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D91" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D92" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D94" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1:A7" location="목차!A1" display="목차!A1" xr:uid="{5D10E4D8-71D9-4B22-A02E-746DDC7F047E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900018B4-248B-4963-B8EF-D15D1FCEE962}">
+  <dimension ref="A1:Q59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="5.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="39"/>
+      <c r="M2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="13"/>
+    </row>
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="39"/>
+      <c r="H3" s="6"/>
+      <c r="M3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+    </row>
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="39"/>
+      <c r="H4" s="6"/>
+      <c r="M4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+    </row>
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="39"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="39"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="39"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="11" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="25" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+    </row>
+    <row r="27" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D40" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D43" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D46" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D47" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+    </row>
+    <row r="51" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D51" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D52" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D53" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+    </row>
+    <row r="59" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1:A7" location="목차!A1" display="목차!A1" xr:uid="{24DFEA3A-4721-4299-92E7-6922C64C472B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E7D2B5-3732-46A4-9814-CED24E1391C4}">
+  <dimension ref="A1:U59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="5.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="39"/>
+      <c r="M2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="13"/>
+    </row>
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="39"/>
+      <c r="H3" s="6"/>
+      <c r="M3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+    </row>
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="39"/>
+      <c r="H4" s="6"/>
+      <c r="M4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+    </row>
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="39"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="39"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="39"/>
       <c r="H7" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5807,7 +9457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFF7ADC-9B90-43D2-923E-01DE6568B968}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
@@ -5821,12 +9471,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
+      <c r="A2" s="39"/>
       <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
@@ -5836,7 +9486,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
+      <c r="A3" s="39"/>
       <c r="H3" s="6"/>
       <c r="M3" s="14" t="s">
         <v>7</v>
@@ -5847,7 +9497,7 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
+      <c r="A4" s="39"/>
       <c r="H4" s="6"/>
       <c r="M4" s="10" t="s">
         <v>8</v>
@@ -5857,15 +9507,15 @@
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
+      <c r="A5" s="39"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
+      <c r="A6" s="39"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
       <c r="H7" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5956,7 +9606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DCCDC4B-10B5-4FB8-B5BB-DE6FFA03CB16}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
@@ -5970,12 +9620,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
+      <c r="A2" s="39"/>
       <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
@@ -5985,7 +9635,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
+      <c r="A3" s="39"/>
       <c r="H3" s="6"/>
       <c r="M3" s="14" t="s">
         <v>7</v>
@@ -5996,7 +9646,7 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
+      <c r="A4" s="39"/>
       <c r="H4" s="6"/>
       <c r="M4" s="10" t="s">
         <v>8</v>
@@ -6006,15 +9656,15 @@
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
+      <c r="A5" s="39"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
+      <c r="A6" s="39"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
       <c r="H7" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6318,7 +9968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74305CAB-EF31-4180-A9B1-F3B919031D3D}">
   <dimension ref="A1:Q73"/>
   <sheetViews>
@@ -6334,12 +9984,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
+      <c r="A2" s="39"/>
       <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
@@ -6349,7 +9999,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
+      <c r="A3" s="39"/>
       <c r="H3" s="6"/>
       <c r="M3" s="14" t="s">
         <v>7</v>
@@ -6360,7 +10010,7 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
+      <c r="A4" s="39"/>
       <c r="H4" s="6"/>
       <c r="M4" s="10" t="s">
         <v>8</v>
@@ -6371,15 +10021,15 @@
       <c r="Q4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
+      <c r="A5" s="39"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
+      <c r="A6" s="39"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
       <c r="H7" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6673,7 +10323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27DC9AE-D3F3-4D99-93B4-7F898251C61F}">
   <dimension ref="A1:X64"/>
   <sheetViews>
@@ -6687,12 +10337,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
+      <c r="A2" s="39"/>
       <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
@@ -6702,7 +10352,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
+      <c r="A3" s="39"/>
       <c r="H3" s="6"/>
       <c r="M3" s="14" t="s">
         <v>7</v>
@@ -6713,7 +10363,7 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
+      <c r="A4" s="39"/>
       <c r="H4" s="6"/>
       <c r="M4" s="10" t="s">
         <v>8</v>
@@ -6723,15 +10373,15 @@
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
+      <c r="A5" s="39"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
+      <c r="A6" s="39"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
       <c r="H7" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6826,226 +10476,226 @@
       </c>
     </row>
     <row r="31" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36" t="s">
+      <c r="F31" s="37"/>
+      <c r="G31" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36" t="s">
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36" t="s">
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="36"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="36"/>
+      <c r="T31" s="37"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="37"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="37"/>
     </row>
     <row r="32" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E32" s="36" t="s">
+      <c r="E32" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="F32" s="36"/>
-      <c r="G32" s="39" t="s">
+      <c r="F32" s="37"/>
+      <c r="G32" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="39" t="s">
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="39" t="s">
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="36"/>
-      <c r="X32" s="36"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="37"/>
     </row>
     <row r="33" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
-      <c r="T33" s="36"/>
-      <c r="U33" s="36"/>
-      <c r="V33" s="36"/>
-      <c r="W33" s="36"/>
-      <c r="X33" s="36"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="37"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="37"/>
     </row>
     <row r="34" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="36"/>
-      <c r="X34" s="36"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="37"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="37"/>
+      <c r="X34" s="37"/>
     </row>
     <row r="35" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="36"/>
-      <c r="S35" s="36"/>
-      <c r="T35" s="36"/>
-      <c r="U35" s="36"/>
-      <c r="V35" s="36"/>
-      <c r="W35" s="36"/>
-      <c r="X35" s="36"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="37"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="37"/>
+      <c r="U35" s="37"/>
+      <c r="V35" s="37"/>
+      <c r="W35" s="37"/>
+      <c r="X35" s="37"/>
     </row>
     <row r="36" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E36" s="36" t="s">
+      <c r="E36" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="F36" s="36"/>
-      <c r="G36" s="39" t="s">
+      <c r="F36" s="37"/>
+      <c r="G36" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="39" t="s">
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="N36" s="36"/>
-      <c r="O36" s="36"/>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="36"/>
-      <c r="S36" s="39" t="s">
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="T36" s="36"/>
-      <c r="U36" s="36"/>
-      <c r="V36" s="36"/>
-      <c r="W36" s="36"/>
-      <c r="X36" s="36"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
     </row>
     <row r="37" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="36"/>
-      <c r="Q37" s="36"/>
-      <c r="R37" s="36"/>
-      <c r="S37" s="36"/>
-      <c r="T37" s="36"/>
-      <c r="U37" s="36"/>
-      <c r="V37" s="36"/>
-      <c r="W37" s="36"/>
-      <c r="X37" s="36"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="37"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="37"/>
     </row>
     <row r="38" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="36"/>
-      <c r="P38" s="36"/>
-      <c r="Q38" s="36"/>
-      <c r="R38" s="36"/>
-      <c r="S38" s="36"/>
-      <c r="T38" s="36"/>
-      <c r="U38" s="36"/>
-      <c r="V38" s="36"/>
-      <c r="W38" s="36"/>
-      <c r="X38" s="36"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
     </row>
     <row r="39" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
-      <c r="O39" s="36"/>
-      <c r="P39" s="36"/>
-      <c r="Q39" s="36"/>
-      <c r="R39" s="36"/>
-      <c r="S39" s="36"/>
-      <c r="T39" s="36"/>
-      <c r="U39" s="36"/>
-      <c r="V39" s="36"/>
-      <c r="W39" s="36"/>
-      <c r="X39" s="36"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="37"/>
+      <c r="U39" s="37"/>
+      <c r="V39" s="37"/>
+      <c r="W39" s="37"/>
+      <c r="X39" s="37"/>
     </row>
     <row r="41" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="14" t="s">
@@ -7163,11 +10813,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:A7"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:X31"/>
     <mergeCell ref="E36:F39"/>
     <mergeCell ref="G32:L35"/>
     <mergeCell ref="G36:L39"/>
@@ -7176,6 +10821,11 @@
     <mergeCell ref="M36:R39"/>
     <mergeCell ref="S36:X39"/>
     <mergeCell ref="E32:F35"/>
+    <mergeCell ref="A1:A7"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:X31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -7185,527 +10835,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5CE60D-3F10-4903-B885-6CDA794FB40F}">
-  <dimension ref="A1:Q83"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="5.625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="M2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="13"/>
-    </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
-      <c r="E3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="M3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-    </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
-      <c r="E4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="M4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-    </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
-      <c r="E5" s="6"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
-      <c r="E6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="11" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="C19" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-    </row>
-    <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-    </row>
-    <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E31" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F39" s="29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F40" s="29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F41" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F42" s="29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F43" s="29"/>
-    </row>
-    <row r="44" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F44" s="29"/>
-    </row>
-    <row r="45" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F45" s="29"/>
-    </row>
-    <row r="46" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F46" s="29"/>
-    </row>
-    <row r="47" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F47" s="29"/>
-    </row>
-    <row r="48" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F48" s="29"/>
-    </row>
-    <row r="49" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F49" s="29"/>
-    </row>
-    <row r="50" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F50" s="29"/>
-    </row>
-    <row r="51" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="13"/>
-    </row>
-    <row r="52" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F52" s="29"/>
-    </row>
-    <row r="53" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-    </row>
-    <row r="55" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D55" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-    </row>
-    <row r="59" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D59" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="80" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D80" s="27"/>
-    </row>
-    <row r="81" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D81" s="27"/>
-    </row>
-    <row r="82" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D82" s="27"/>
-    </row>
-    <row r="83" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D83" s="27"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:A7"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1:A7" location="목차!A1" display="목차!A1" xr:uid="{F10F27C0-1280-4C11-88CE-AF0E165BEE27}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8709AF78-8857-4867-B1DD-14A6DFC4B711}">
-  <dimension ref="A1:Q65"/>
-  <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="5.625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="M2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="13"/>
-    </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
-      <c r="H3" s="6"/>
-      <c r="M3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-    </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
-      <c r="H4" s="6"/>
-      <c r="M4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-    </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="11" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="19" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="24" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="13"/>
-    </row>
-    <row r="30" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="13"/>
-    </row>
-    <row r="36" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E39" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="65" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="27"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:A7"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1:A7" location="목차!A1" display="목차!A1" xr:uid="{0EB83592-1433-4420-8FD0-0C458FCD1823}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/정리.xlsx
+++ b/정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KDJ\Desktop\algorithm-practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938A7E82-86DE-4029-A2EF-2F29BE89379E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82313868-8CBE-4CE1-81BE-4B0C426E8990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="855" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="437">
   <si>
     <t>NO</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3350,10 +3350,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1. 게임 맵 최단거리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>처음에 일부러 그래프 클래스를 정의하는 것을 시도해보았다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3379,6 +3375,62 @@
   </si>
   <si>
     <t>BFS는 도착지점에 도달한 순간 그 횟수가 무조건 최소이기에 반복을 그만할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 게임 맵 최단거리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 타겟 넘버</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탐색 방향이 여러 방향이 있는 게 아니라 무조건 순서가 정해져있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탐색을 끝내는 조건도 따로 있는게 아니라 그저 순서대로 진행하면 되는거여서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS보다는 DFS가 더 좋다고 생각했다.(BFS도 되긴 함)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재귀함수로 깊이가 깊어지면서 깊이가 끝에 도달하면 결과를 출력하도록 작성함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>순서가 정해져있기에 visited를 이용하고 가뵤을 더했다 뺐다 없이 진행함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 네트워크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 등굣길</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그냥 최단거리 찾기문제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>딱히 특별한 것 없음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS는 기본적으로는 Stack구조를 사용하지만, 함수를 재귀적으로 call하면 Stack으로 관리하기에</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리가 Stack을 만들어서 어쩌구 할 일은 없다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>따라서 visited를 잘 이용하도록 재귀적으로 잘 만들어주면 된다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3688,7 +3740,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3797,21 +3849,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3830,9 +3867,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3847,6 +3881,21 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6255,8 +6304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C24" sqref="A22:C24"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6283,141 +6332,141 @@
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>3</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>4</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>6</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>7</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6453,12 +6502,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="49" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
+      <c r="A2" s="50"/>
       <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
@@ -6468,7 +6517,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
+      <c r="A3" s="50"/>
       <c r="E3" s="6"/>
       <c r="H3" s="6"/>
       <c r="M3" s="14" t="s">
@@ -6480,7 +6529,7 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
+      <c r="A4" s="50"/>
       <c r="E4" s="6"/>
       <c r="H4" s="6"/>
       <c r="M4" s="10" t="s">
@@ -6491,17 +6540,17 @@
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
+      <c r="A5" s="50"/>
       <c r="E5" s="6"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
+      <c r="A6" s="50"/>
       <c r="E6" s="6"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
+      <c r="A7" s="50"/>
       <c r="H7" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6898,12 +6947,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="49" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
+      <c r="A2" s="50"/>
       <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
@@ -6913,7 +6962,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
+      <c r="A3" s="50"/>
       <c r="H3" s="6"/>
       <c r="M3" s="14" t="s">
         <v>7</v>
@@ -6924,7 +6973,7 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
+      <c r="A4" s="50"/>
       <c r="H4" s="6"/>
       <c r="M4" s="10" t="s">
         <v>8</v>
@@ -6934,15 +6983,15 @@
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
+      <c r="A5" s="50"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
+      <c r="A6" s="50"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
+      <c r="A7" s="50"/>
       <c r="H7" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -7151,195 +7200,112 @@
       </c>
     </row>
     <row r="58" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D58" s="45" t="s">
+      <c r="D58" s="40" t="s">
         <v>376</v>
       </c>
-      <c r="E58" s="41"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="41"/>
-      <c r="K58" s="41"/>
-      <c r="L58" s="42"/>
-      <c r="N58" s="45" t="s">
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="37"/>
+      <c r="N58" s="40" t="s">
         <v>376</v>
       </c>
-      <c r="O58" s="41"/>
-      <c r="P58" s="41"/>
-      <c r="Q58" s="41"/>
-      <c r="R58" s="41"/>
-      <c r="S58" s="41"/>
-      <c r="T58" s="41"/>
-      <c r="U58" s="42"/>
+      <c r="O58" s="36"/>
+      <c r="P58" s="36"/>
+      <c r="Q58" s="36"/>
+      <c r="R58" s="36"/>
+      <c r="S58" s="36"/>
+      <c r="T58" s="36"/>
+      <c r="U58" s="37"/>
     </row>
     <row r="59" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D59" s="46" t="s">
+      <c r="D59" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="E59" s="47"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="47"/>
-      <c r="H59" s="47"/>
-      <c r="I59" s="47"/>
-      <c r="J59" s="47"/>
-      <c r="K59" s="47"/>
-      <c r="L59" s="48"/>
-      <c r="N59" s="46" t="s">
+      <c r="L59" s="42"/>
+      <c r="N59" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="O59" s="47"/>
-      <c r="P59" s="47"/>
-      <c r="Q59" s="47"/>
-      <c r="R59" s="47"/>
-      <c r="S59" s="47"/>
-      <c r="T59" s="47"/>
-      <c r="U59" s="48"/>
+      <c r="U59" s="42"/>
     </row>
     <row r="60" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D60" s="46" t="s">
+      <c r="D60" s="41" t="s">
         <v>378</v>
       </c>
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="47"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="47"/>
-      <c r="J60" s="47"/>
-      <c r="K60" s="47"/>
-      <c r="L60" s="48"/>
-      <c r="N60" s="46" t="s">
+      <c r="L60" s="42"/>
+      <c r="N60" s="41" t="s">
         <v>378</v>
       </c>
-      <c r="O60" s="47"/>
-      <c r="P60" s="47"/>
-      <c r="Q60" s="47"/>
-      <c r="R60" s="47"/>
-      <c r="S60" s="47"/>
-      <c r="T60" s="47"/>
-      <c r="U60" s="48"/>
+      <c r="U60" s="42"/>
     </row>
     <row r="61" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D61" s="49"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="47"/>
-      <c r="I61" s="47"/>
-      <c r="J61" s="47"/>
-      <c r="K61" s="47"/>
-      <c r="L61" s="48"/>
-      <c r="N61" s="46" t="s">
+      <c r="D61" s="43"/>
+      <c r="L61" s="42"/>
+      <c r="N61" s="41" t="s">
         <v>380</v>
       </c>
-      <c r="O61" s="47"/>
-      <c r="P61" s="47"/>
-      <c r="Q61" s="47"/>
-      <c r="R61" s="47"/>
-      <c r="S61" s="47"/>
-      <c r="T61" s="47"/>
-      <c r="U61" s="48"/>
+      <c r="U61" s="42"/>
     </row>
     <row r="62" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D62" s="46" t="s">
+      <c r="D62" s="41" t="s">
         <v>379</v>
       </c>
-      <c r="E62" s="47"/>
-      <c r="F62" s="47"/>
-      <c r="G62" s="47"/>
-      <c r="H62" s="47"/>
-      <c r="I62" s="47"/>
-      <c r="J62" s="47"/>
-      <c r="K62" s="47"/>
-      <c r="L62" s="48"/>
-      <c r="N62" s="46" t="s">
+      <c r="L62" s="42"/>
+      <c r="N62" s="41" t="s">
         <v>381</v>
       </c>
-      <c r="O62" s="47"/>
-      <c r="P62" s="47"/>
-      <c r="Q62" s="47"/>
-      <c r="R62" s="47"/>
-      <c r="S62" s="47"/>
-      <c r="T62" s="47"/>
-      <c r="U62" s="48"/>
+      <c r="U62" s="42"/>
     </row>
     <row r="63" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D63" s="46" t="s">
+      <c r="D63" s="41" t="s">
         <v>384</v>
       </c>
-      <c r="E63" s="47"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="47"/>
-      <c r="H63" s="47"/>
-      <c r="I63" s="47"/>
-      <c r="J63" s="47"/>
-      <c r="K63" s="47"/>
-      <c r="L63" s="48"/>
-      <c r="N63" s="46" t="s">
+      <c r="L63" s="42"/>
+      <c r="N63" s="41" t="s">
         <v>382</v>
       </c>
-      <c r="O63" s="47"/>
-      <c r="P63" s="47"/>
-      <c r="Q63" s="47"/>
-      <c r="R63" s="47"/>
-      <c r="S63" s="47"/>
-      <c r="T63" s="47"/>
-      <c r="U63" s="48"/>
+      <c r="U63" s="42"/>
     </row>
     <row r="64" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D64" s="21"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="43"/>
-      <c r="G64" s="43"/>
-      <c r="H64" s="43"/>
-      <c r="I64" s="43"/>
-      <c r="J64" s="43"/>
-      <c r="K64" s="43"/>
-      <c r="L64" s="44"/>
-      <c r="N64" s="46" t="s">
+      <c r="E64" s="38"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="38"/>
+      <c r="J64" s="38"/>
+      <c r="K64" s="38"/>
+      <c r="L64" s="39"/>
+      <c r="N64" s="41" t="s">
         <v>383</v>
       </c>
-      <c r="O64" s="47"/>
-      <c r="P64" s="47"/>
-      <c r="Q64" s="47"/>
-      <c r="R64" s="47"/>
-      <c r="S64" s="47"/>
-      <c r="T64" s="47"/>
-      <c r="U64" s="48"/>
+      <c r="U64" s="42"/>
     </row>
     <row r="65" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N65" s="46" t="s">
+      <c r="N65" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="O65" s="47"/>
-      <c r="P65" s="47"/>
-      <c r="Q65" s="47"/>
-      <c r="R65" s="47"/>
-      <c r="S65" s="47"/>
-      <c r="T65" s="47"/>
-      <c r="U65" s="48"/>
+      <c r="U65" s="42"/>
     </row>
     <row r="66" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N66" s="46" t="s">
+      <c r="N66" s="41" t="s">
         <v>384</v>
       </c>
-      <c r="O66" s="47"/>
-      <c r="P66" s="47"/>
-      <c r="Q66" s="47"/>
-      <c r="R66" s="47"/>
-      <c r="S66" s="47"/>
-      <c r="T66" s="47"/>
-      <c r="U66" s="48"/>
+      <c r="U66" s="42"/>
     </row>
     <row r="67" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N67" s="21"/>
-      <c r="O67" s="43"/>
-      <c r="P67" s="43"/>
-      <c r="Q67" s="43"/>
-      <c r="R67" s="43"/>
-      <c r="S67" s="43"/>
-      <c r="T67" s="43"/>
-      <c r="U67" s="44"/>
+      <c r="O67" s="38"/>
+      <c r="P67" s="38"/>
+      <c r="Q67" s="38"/>
+      <c r="R67" s="38"/>
+      <c r="S67" s="38"/>
+      <c r="T67" s="38"/>
+      <c r="U67" s="39"/>
     </row>
     <row r="68" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="3" t="s">
@@ -7389,12 +7355,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="49" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
+      <c r="A2" s="50"/>
       <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
@@ -7404,7 +7370,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
+      <c r="A3" s="50"/>
       <c r="H3" s="6"/>
       <c r="M3" s="14" t="s">
         <v>7</v>
@@ -7415,7 +7381,7 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
+      <c r="A4" s="50"/>
       <c r="H4" s="6"/>
       <c r="M4" s="10" t="s">
         <v>8</v>
@@ -7425,15 +7391,15 @@
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
+      <c r="A5" s="50"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
+      <c r="A6" s="50"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
+      <c r="A7" s="50"/>
       <c r="H7" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -7483,7 +7449,7 @@
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="49" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="3"/>
@@ -7509,7 +7475,7 @@
       <c r="V1" s="3"/>
     </row>
     <row r="2" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
+      <c r="A2" s="50"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -7533,7 +7499,7 @@
       <c r="U2" s="3"/>
     </row>
     <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -7557,7 +7523,7 @@
       <c r="U3" s="3"/>
     </row>
     <row r="4" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -7580,7 +7546,7 @@
       <c r="U4" s="3"/>
     </row>
     <row r="5" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -7598,7 +7564,7 @@
       <c r="U5" s="3"/>
     </row>
     <row r="6" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -7616,7 +7582,7 @@
       <c r="U6" s="3"/>
     </row>
     <row r="7" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
+      <c r="A7" s="50"/>
       <c r="H7" s="5"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -8122,12 +8088,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="49" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
+      <c r="A2" s="50"/>
       <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
@@ -8137,7 +8103,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
+      <c r="A3" s="50"/>
       <c r="H3" s="6"/>
       <c r="M3" s="14" t="s">
         <v>7</v>
@@ -8148,7 +8114,7 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
+      <c r="A4" s="50"/>
       <c r="H4" s="6"/>
       <c r="M4" s="10" t="s">
         <v>8</v>
@@ -8158,15 +8124,15 @@
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
+      <c r="A5" s="50"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
+      <c r="A6" s="50"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
+      <c r="A7" s="50"/>
       <c r="H7" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -8197,10 +8163,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD41A1E1-188A-4F1E-BBC7-E090551937C4}">
-  <dimension ref="A1:U94"/>
+  <dimension ref="A1:U118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P82" sqref="P82"/>
+    <sheetView topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8209,12 +8175,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="49" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
+      <c r="A2" s="50"/>
       <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
@@ -8224,7 +8190,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
+      <c r="A3" s="50"/>
       <c r="H3" s="6"/>
       <c r="M3" s="14" t="s">
         <v>7</v>
@@ -8235,7 +8201,7 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
+      <c r="A4" s="50"/>
       <c r="H4" s="6"/>
       <c r="M4" s="10" t="s">
         <v>8</v>
@@ -8246,15 +8212,15 @@
       <c r="Q4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
+      <c r="A5" s="50"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
+      <c r="A6" s="50"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
+      <c r="A7" s="50"/>
       <c r="H7" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -8362,414 +8328,148 @@
       </c>
     </row>
     <row r="34" spans="6:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F34" s="45" t="s">
+      <c r="F34" s="40" t="s">
         <v>376</v>
       </c>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="41"/>
-      <c r="T34" s="41"/>
-      <c r="U34" s="42"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="37"/>
     </row>
     <row r="35" spans="6:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F35" s="50" t="s">
+      <c r="F35" s="44" t="s">
         <v>393</v>
       </c>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="47"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="47"/>
-      <c r="P35" s="47"/>
-      <c r="Q35" s="47"/>
-      <c r="R35" s="47"/>
-      <c r="S35" s="47"/>
-      <c r="T35" s="47"/>
-      <c r="U35" s="48"/>
+      <c r="U35" s="42"/>
     </row>
     <row r="36" spans="6:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F36" s="46" t="s">
+      <c r="F36" s="41" t="s">
         <v>394</v>
       </c>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
-      <c r="O36" s="47"/>
-      <c r="P36" s="47"/>
-      <c r="Q36" s="47"/>
-      <c r="R36" s="47"/>
-      <c r="S36" s="47"/>
-      <c r="T36" s="47"/>
-      <c r="U36" s="48"/>
+      <c r="U36" s="42"/>
     </row>
     <row r="37" spans="6:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F37" s="46" t="s">
+      <c r="F37" s="41" t="s">
         <v>395</v>
       </c>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="47"/>
-      <c r="O37" s="47"/>
-      <c r="P37" s="47"/>
-      <c r="Q37" s="47"/>
-      <c r="R37" s="47"/>
-      <c r="S37" s="47"/>
-      <c r="T37" s="47"/>
-      <c r="U37" s="48"/>
+      <c r="U37" s="42"/>
     </row>
     <row r="38" spans="6:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F38" s="46" t="s">
+      <c r="F38" s="41" t="s">
         <v>396</v>
       </c>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="47"/>
-      <c r="L38" s="47"/>
-      <c r="M38" s="47"/>
-      <c r="N38" s="47"/>
-      <c r="O38" s="47"/>
-      <c r="P38" s="47"/>
-      <c r="Q38" s="47"/>
-      <c r="R38" s="47"/>
-      <c r="S38" s="47"/>
-      <c r="T38" s="47"/>
-      <c r="U38" s="48"/>
+      <c r="U38" s="42"/>
     </row>
     <row r="39" spans="6:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F39" s="49"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="47"/>
-      <c r="P39" s="47"/>
-      <c r="Q39" s="47"/>
-      <c r="R39" s="47"/>
-      <c r="S39" s="47"/>
-      <c r="T39" s="47"/>
-      <c r="U39" s="48"/>
+      <c r="F39" s="43"/>
+      <c r="U39" s="42"/>
     </row>
     <row r="40" spans="6:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F40" s="50" t="s">
+      <c r="F40" s="44" t="s">
         <v>397</v>
       </c>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="47"/>
-      <c r="O40" s="47"/>
-      <c r="P40" s="47"/>
-      <c r="Q40" s="47"/>
-      <c r="R40" s="47"/>
-      <c r="S40" s="47"/>
-      <c r="T40" s="47"/>
-      <c r="U40" s="48"/>
+      <c r="U40" s="42"/>
     </row>
     <row r="41" spans="6:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F41" s="49"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="47"/>
-      <c r="P41" s="47"/>
-      <c r="Q41" s="47"/>
-      <c r="R41" s="47"/>
-      <c r="S41" s="47"/>
-      <c r="T41" s="47"/>
-      <c r="U41" s="48"/>
+      <c r="F41" s="43"/>
+      <c r="U41" s="42"/>
     </row>
     <row r="42" spans="6:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F42" s="46" t="s">
+      <c r="F42" s="41" t="s">
         <v>398</v>
       </c>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="47"/>
-      <c r="L42" s="47"/>
-      <c r="M42" s="47"/>
-      <c r="N42" s="47"/>
-      <c r="O42" s="47"/>
-      <c r="P42" s="47"/>
-      <c r="Q42" s="47"/>
-      <c r="R42" s="47"/>
-      <c r="S42" s="47"/>
-      <c r="T42" s="47"/>
-      <c r="U42" s="48"/>
+      <c r="U42" s="42"/>
     </row>
     <row r="43" spans="6:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F43" s="49"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="47"/>
-      <c r="K43" s="47"/>
-      <c r="L43" s="47"/>
-      <c r="M43" s="47"/>
-      <c r="N43" s="47"/>
-      <c r="O43" s="47"/>
-      <c r="P43" s="47"/>
-      <c r="Q43" s="47"/>
-      <c r="R43" s="47"/>
-      <c r="S43" s="47"/>
-      <c r="T43" s="47"/>
-      <c r="U43" s="48"/>
+      <c r="F43" s="43"/>
+      <c r="U43" s="42"/>
     </row>
     <row r="44" spans="6:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F44" s="51" t="s">
+      <c r="F44" s="45" t="s">
         <v>399</v>
       </c>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="47"/>
-      <c r="N44" s="47"/>
-      <c r="O44" s="47"/>
-      <c r="P44" s="47"/>
-      <c r="Q44" s="47"/>
-      <c r="R44" s="47"/>
-      <c r="S44" s="47"/>
-      <c r="T44" s="47"/>
-      <c r="U44" s="48"/>
+      <c r="U44" s="42"/>
     </row>
     <row r="45" spans="6:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F45" s="49"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="47"/>
-      <c r="O45" s="47"/>
-      <c r="P45" s="47"/>
-      <c r="Q45" s="47"/>
-      <c r="R45" s="47"/>
-      <c r="S45" s="47"/>
-      <c r="T45" s="47"/>
-      <c r="U45" s="48"/>
+      <c r="F45" s="43"/>
+      <c r="U45" s="42"/>
     </row>
     <row r="46" spans="6:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F46" s="46" t="s">
+      <c r="F46" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="47"/>
-      <c r="K46" s="47"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="47"/>
-      <c r="N46" s="47"/>
-      <c r="O46" s="47"/>
-      <c r="P46" s="47"/>
-      <c r="Q46" s="47"/>
-      <c r="R46" s="47"/>
-      <c r="S46" s="47"/>
-      <c r="T46" s="47"/>
-      <c r="U46" s="48"/>
+      <c r="U46" s="42"/>
     </row>
     <row r="47" spans="6:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F47" s="49"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="47"/>
-      <c r="J47" s="47"/>
-      <c r="K47" s="47"/>
-      <c r="L47" s="47"/>
-      <c r="M47" s="47"/>
-      <c r="N47" s="47"/>
-      <c r="O47" s="47"/>
-      <c r="P47" s="47"/>
-      <c r="Q47" s="47"/>
-      <c r="R47" s="47"/>
-      <c r="S47" s="47"/>
-      <c r="T47" s="47"/>
-      <c r="U47" s="48"/>
+      <c r="F47" s="43"/>
+      <c r="U47" s="42"/>
     </row>
     <row r="48" spans="6:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F48" s="46" t="s">
+      <c r="F48" s="41" t="s">
         <v>400</v>
       </c>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="47"/>
-      <c r="K48" s="47"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="47"/>
-      <c r="N48" s="47"/>
-      <c r="O48" s="47"/>
-      <c r="P48" s="47"/>
-      <c r="Q48" s="47"/>
-      <c r="R48" s="47"/>
-      <c r="S48" s="47"/>
-      <c r="T48" s="47"/>
-      <c r="U48" s="48"/>
+      <c r="U48" s="42"/>
     </row>
     <row r="49" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F49" s="46" t="s">
+      <c r="F49" s="41" t="s">
         <v>401</v>
       </c>
-      <c r="G49" s="47"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="47"/>
-      <c r="K49" s="47"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="47"/>
-      <c r="N49" s="47"/>
-      <c r="O49" s="47"/>
-      <c r="P49" s="47"/>
-      <c r="Q49" s="47"/>
-      <c r="R49" s="47"/>
-      <c r="S49" s="47"/>
-      <c r="T49" s="47"/>
-      <c r="U49" s="48"/>
+      <c r="U49" s="42"/>
     </row>
     <row r="50" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F50" s="46" t="s">
+      <c r="F50" s="41" t="s">
         <v>402</v>
       </c>
-      <c r="G50" s="47"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="47"/>
-      <c r="K50" s="47"/>
-      <c r="L50" s="47"/>
-      <c r="M50" s="47"/>
-      <c r="N50" s="47"/>
-      <c r="O50" s="47"/>
-      <c r="P50" s="47"/>
-      <c r="Q50" s="47"/>
-      <c r="R50" s="47"/>
-      <c r="S50" s="47"/>
-      <c r="T50" s="47"/>
-      <c r="U50" s="48"/>
+      <c r="U50" s="42"/>
     </row>
     <row r="51" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F51" s="46" t="s">
+      <c r="F51" s="41" t="s">
         <v>403</v>
       </c>
-      <c r="G51" s="47"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="47"/>
-      <c r="K51" s="47"/>
-      <c r="L51" s="47"/>
-      <c r="M51" s="47"/>
-      <c r="N51" s="47"/>
-      <c r="O51" s="47"/>
-      <c r="P51" s="47"/>
-      <c r="Q51" s="47"/>
-      <c r="R51" s="47"/>
-      <c r="S51" s="47"/>
-      <c r="T51" s="47"/>
-      <c r="U51" s="48"/>
+      <c r="U51" s="42"/>
     </row>
     <row r="52" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F52" s="46" t="s">
+      <c r="F52" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
-      <c r="I52" s="47"/>
-      <c r="J52" s="47"/>
-      <c r="K52" s="47"/>
-      <c r="L52" s="47"/>
-      <c r="M52" s="47"/>
-      <c r="N52" s="47"/>
-      <c r="O52" s="47"/>
-      <c r="P52" s="47"/>
-      <c r="Q52" s="47"/>
-      <c r="R52" s="47"/>
-      <c r="S52" s="47"/>
-      <c r="T52" s="47"/>
-      <c r="U52" s="48"/>
+      <c r="U52" s="42"/>
     </row>
     <row r="53" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F53" s="49" t="s">
+      <c r="F53" s="43" t="s">
         <v>404</v>
       </c>
-      <c r="G53" s="47"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="47"/>
-      <c r="J53" s="47"/>
-      <c r="K53" s="47"/>
-      <c r="L53" s="47"/>
-      <c r="M53" s="47"/>
-      <c r="N53" s="47"/>
-      <c r="O53" s="47"/>
-      <c r="P53" s="47"/>
-      <c r="Q53" s="47"/>
-      <c r="R53" s="47"/>
-      <c r="S53" s="47"/>
-      <c r="T53" s="47"/>
-      <c r="U53" s="48"/>
+      <c r="U53" s="42"/>
     </row>
     <row r="54" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F54" s="52" t="s">
+      <c r="F54" s="46" t="s">
         <v>384</v>
       </c>
-      <c r="G54" s="43"/>
-      <c r="H54" s="43"/>
-      <c r="I54" s="43"/>
-      <c r="J54" s="43"/>
-      <c r="K54" s="43"/>
-      <c r="L54" s="43"/>
-      <c r="M54" s="43"/>
-      <c r="N54" s="43"/>
-      <c r="O54" s="43"/>
-      <c r="P54" s="43"/>
-      <c r="Q54" s="43"/>
-      <c r="R54" s="43"/>
-      <c r="S54" s="43"/>
-      <c r="T54" s="43"/>
-      <c r="U54" s="44"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="38"/>
+      <c r="O54" s="38"/>
+      <c r="P54" s="38"/>
+      <c r="Q54" s="38"/>
+      <c r="R54" s="38"/>
+      <c r="S54" s="38"/>
+      <c r="T54" s="38"/>
+      <c r="U54" s="39"/>
     </row>
     <row r="55" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D55" s="27"/>
@@ -8827,81 +8527,139 @@
       <c r="F69" s="15"/>
       <c r="G69" s="15"/>
     </row>
-    <row r="74" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C74" s="14" t="s">
+    <row r="71" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D71" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="72" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D72" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="73" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D73" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-    </row>
-    <row r="76" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D76" s="3" t="s">
-        <v>413</v>
-      </c>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
     </row>
     <row r="77" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D77" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="78" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D78" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="79" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D79" s="3" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="82" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="12" t="s">
+    <row r="83" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="13"/>
-    </row>
-    <row r="84" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C84" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-    </row>
-    <row r="86" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D86" s="3" t="s">
-        <v>417</v>
-      </c>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="13"/>
+    </row>
+    <row r="85" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C85" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
     </row>
     <row r="87" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D87" s="3" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
     </row>
     <row r="88" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D88" s="3" t="s">
-        <v>419</v>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D89" s="3" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="90" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D90" s="3" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
     </row>
     <row r="91" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D91" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C93" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+    </row>
+    <row r="108" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C108" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
+    </row>
+    <row r="110" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D110" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="111" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D111" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="112" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D112" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D114" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D115" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D116" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="92" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D92" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D94" s="3" t="s">
-        <v>420</v>
+    <row r="118" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D118" s="3" t="s">
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -8922,8 +8680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900018B4-248B-4963-B8EF-D15D1FCEE962}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:G25"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8932,12 +8690,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="49" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
+      <c r="A2" s="50"/>
       <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
@@ -8947,7 +8705,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
+      <c r="A3" s="50"/>
       <c r="H3" s="6"/>
       <c r="M3" s="14" t="s">
         <v>7</v>
@@ -8958,7 +8716,7 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
+      <c r="A4" s="50"/>
       <c r="H4" s="6"/>
       <c r="M4" s="10" t="s">
         <v>8</v>
@@ -8968,15 +8726,15 @@
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
+      <c r="A5" s="50"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
+      <c r="A6" s="50"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
+      <c r="A7" s="50"/>
       <c r="H7" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -9137,12 +8895,22 @@
     </row>
     <row r="55" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="14" t="s">
-        <v>346</v>
+        <v>431</v>
       </c>
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
+    </row>
+    <row r="57" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D57" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D58" s="3" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="59" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D59" s="27"/>
@@ -9165,8 +8933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E7D2B5-3732-46A4-9814-CED24E1391C4}">
   <dimension ref="A1:U59"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:G19"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9175,12 +8943,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="49" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
+      <c r="A2" s="50"/>
       <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
@@ -9190,7 +8958,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
+      <c r="A3" s="50"/>
       <c r="H3" s="6"/>
       <c r="M3" s="14" t="s">
         <v>7</v>
@@ -9201,7 +8969,7 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
+      <c r="A4" s="50"/>
       <c r="H4" s="6"/>
       <c r="M4" s="10" t="s">
         <v>8</v>
@@ -9211,15 +8979,15 @@
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
+      <c r="A5" s="50"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
+      <c r="A6" s="50"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
+      <c r="A7" s="50"/>
       <c r="H7" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -9471,12 +9239,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="49" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
+      <c r="A2" s="50"/>
       <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
@@ -9486,7 +9254,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
+      <c r="A3" s="50"/>
       <c r="H3" s="6"/>
       <c r="M3" s="14" t="s">
         <v>7</v>
@@ -9497,7 +9265,7 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
+      <c r="A4" s="50"/>
       <c r="H4" s="6"/>
       <c r="M4" s="10" t="s">
         <v>8</v>
@@ -9507,15 +9275,15 @@
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
+      <c r="A5" s="50"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
+      <c r="A6" s="50"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
+      <c r="A7" s="50"/>
       <c r="H7" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -9620,12 +9388,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="49" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
+      <c r="A2" s="50"/>
       <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
@@ -9635,7 +9403,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
+      <c r="A3" s="50"/>
       <c r="H3" s="6"/>
       <c r="M3" s="14" t="s">
         <v>7</v>
@@ -9646,7 +9414,7 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
+      <c r="A4" s="50"/>
       <c r="H4" s="6"/>
       <c r="M4" s="10" t="s">
         <v>8</v>
@@ -9656,15 +9424,15 @@
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
+      <c r="A5" s="50"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
+      <c r="A6" s="50"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
+      <c r="A7" s="50"/>
       <c r="H7" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -9972,7 +9740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74305CAB-EF31-4180-A9B1-F3B919031D3D}">
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -9984,12 +9752,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="49" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
+      <c r="A2" s="50"/>
       <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
@@ -9999,7 +9767,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
+      <c r="A3" s="50"/>
       <c r="H3" s="6"/>
       <c r="M3" s="14" t="s">
         <v>7</v>
@@ -10010,7 +9778,7 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
+      <c r="A4" s="50"/>
       <c r="H4" s="6"/>
       <c r="M4" s="10" t="s">
         <v>8</v>
@@ -10021,15 +9789,15 @@
       <c r="Q4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
+      <c r="A5" s="50"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
+      <c r="A6" s="50"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
+      <c r="A7" s="50"/>
       <c r="H7" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -10327,7 +10095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27DC9AE-D3F3-4D99-93B4-7F898251C61F}">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -10337,12 +10105,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="49" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
+      <c r="A2" s="50"/>
       <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
@@ -10352,7 +10120,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
+      <c r="A3" s="50"/>
       <c r="H3" s="6"/>
       <c r="M3" s="14" t="s">
         <v>7</v>
@@ -10363,7 +10131,7 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
+      <c r="A4" s="50"/>
       <c r="H4" s="6"/>
       <c r="M4" s="10" t="s">
         <v>8</v>
@@ -10373,15 +10141,15 @@
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
+      <c r="A5" s="50"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
+      <c r="A6" s="50"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
+      <c r="A7" s="50"/>
       <c r="H7" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -10476,226 +10244,226 @@
       </c>
     </row>
     <row r="31" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E31" s="37" t="s">
+      <c r="E31" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37" t="s">
+      <c r="F31" s="48"/>
+      <c r="G31" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37" t="s">
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37" t="s">
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="T31" s="37"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="37"/>
-      <c r="W31" s="37"/>
-      <c r="X31" s="37"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="48"/>
+      <c r="V31" s="48"/>
+      <c r="W31" s="48"/>
+      <c r="X31" s="48"/>
     </row>
     <row r="32" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E32" s="37" t="s">
+      <c r="E32" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="F32" s="37"/>
-      <c r="G32" s="40" t="s">
+      <c r="F32" s="48"/>
+      <c r="G32" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="40" t="s">
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="40" t="s">
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="37"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="48"/>
+      <c r="X32" s="48"/>
     </row>
     <row r="33" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="37"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="48"/>
+      <c r="U33" s="48"/>
+      <c r="V33" s="48"/>
+      <c r="W33" s="48"/>
+      <c r="X33" s="48"/>
     </row>
     <row r="34" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="37"/>
-      <c r="U34" s="37"/>
-      <c r="V34" s="37"/>
-      <c r="W34" s="37"/>
-      <c r="X34" s="37"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="48"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="48"/>
+      <c r="T34" s="48"/>
+      <c r="U34" s="48"/>
+      <c r="V34" s="48"/>
+      <c r="W34" s="48"/>
+      <c r="X34" s="48"/>
     </row>
     <row r="35" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="37"/>
-      <c r="U35" s="37"/>
-      <c r="V35" s="37"/>
-      <c r="W35" s="37"/>
-      <c r="X35" s="37"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="48"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="48"/>
+      <c r="T35" s="48"/>
+      <c r="U35" s="48"/>
+      <c r="V35" s="48"/>
+      <c r="W35" s="48"/>
+      <c r="X35" s="48"/>
     </row>
     <row r="36" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E36" s="37" t="s">
+      <c r="E36" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="F36" s="37"/>
-      <c r="G36" s="40" t="s">
+      <c r="F36" s="48"/>
+      <c r="G36" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="40" t="s">
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="40" t="s">
+      <c r="N36" s="48"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="48"/>
+      <c r="R36" s="48"/>
+      <c r="S36" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="T36" s="37"/>
-      <c r="U36" s="37"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37"/>
+      <c r="T36" s="48"/>
+      <c r="U36" s="48"/>
+      <c r="V36" s="48"/>
+      <c r="W36" s="48"/>
+      <c r="X36" s="48"/>
     </row>
     <row r="37" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
+      <c r="U37" s="48"/>
+      <c r="V37" s="48"/>
+      <c r="W37" s="48"/>
+      <c r="X37" s="48"/>
     </row>
     <row r="38" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="48"/>
+      <c r="U38" s="48"/>
+      <c r="V38" s="48"/>
+      <c r="W38" s="48"/>
+      <c r="X38" s="48"/>
     </row>
     <row r="39" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="37"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="37"/>
-      <c r="U39" s="37"/>
-      <c r="V39" s="37"/>
-      <c r="W39" s="37"/>
-      <c r="X39" s="37"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="48"/>
+      <c r="Q39" s="48"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="48"/>
+      <c r="T39" s="48"/>
+      <c r="U39" s="48"/>
+      <c r="V39" s="48"/>
+      <c r="W39" s="48"/>
+      <c r="X39" s="48"/>
     </row>
     <row r="41" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="14" t="s">
@@ -10813,6 +10581,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:A7"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:X31"/>
     <mergeCell ref="E36:F39"/>
     <mergeCell ref="G32:L35"/>
     <mergeCell ref="G36:L39"/>
@@ -10821,11 +10594,6 @@
     <mergeCell ref="M36:R39"/>
     <mergeCell ref="S36:X39"/>
     <mergeCell ref="E32:F35"/>
-    <mergeCell ref="A1:A7"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:X31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/정리.xlsx
+++ b/정리.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KDJ\Desktop\algorithm-practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82313868-8CBE-4CE1-81BE-4B0C426E8990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1EC4F2-34FA-4955-AB57-3EC23B5139B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="855" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="1" r:id="rId1"/>
     <sheet name="temp" sheetId="3" r:id="rId2"/>
-    <sheet name="DFS,BFS" sheetId="32" r:id="rId3"/>
-    <sheet name="dynamicProgramming" sheetId="31" r:id="rId4"/>
-    <sheet name="greedy" sheetId="30" r:id="rId5"/>
-    <sheet name="bruteForce" sheetId="28" r:id="rId6"/>
-    <sheet name="sort" sheetId="26" r:id="rId7"/>
-    <sheet name="heap" sheetId="25" r:id="rId8"/>
-    <sheet name="stack-queue" sheetId="24" r:id="rId9"/>
-    <sheet name="hash" sheetId="23" r:id="rId10"/>
-    <sheet name="기타 팁" sheetId="27" r:id="rId11"/>
-    <sheet name="실수목록" sheetId="29" r:id="rId12"/>
-    <sheet name="커밋컨벤션" sheetId="19" r:id="rId13"/>
+    <sheet name="binarySearch" sheetId="33" r:id="rId3"/>
+    <sheet name="DFS,BFS" sheetId="32" r:id="rId4"/>
+    <sheet name="dynamicProgramming" sheetId="31" r:id="rId5"/>
+    <sheet name="greedy" sheetId="30" r:id="rId6"/>
+    <sheet name="bruteForce" sheetId="28" r:id="rId7"/>
+    <sheet name="sort" sheetId="26" r:id="rId8"/>
+    <sheet name="heap" sheetId="25" r:id="rId9"/>
+    <sheet name="stack-queue" sheetId="24" r:id="rId10"/>
+    <sheet name="hash" sheetId="23" r:id="rId11"/>
+    <sheet name="기타 팁" sheetId="27" r:id="rId12"/>
+    <sheet name="실수목록" sheetId="29" r:id="rId13"/>
+    <sheet name="커밋컨벤션" sheetId="19" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="464">
   <si>
     <t>NO</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3431,6 +3432,114 @@
   </si>
   <si>
     <t>따라서 visited를 잘 이용하도록 재귀적으로 잘 만들어주면 된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type cast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입을 지정해줄 때 사용할 수 있는 방법은 두가지이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int number를 long long으로 cast해서 사용하고 싶을 때 다음과 같은 두 방법으로 사용할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C 스타일 방식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(long long) number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++ 스타일 방식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>static_cast&lt;long long&gt; number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++방식으로 하는 것이 더 명시적이고 타입 안정성이 높아서 C++에선 후자 추천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>참조형 변수 가지는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C에서는 참조형 변수를 가지는 함수를 만들 때 파라미터 선언에서 포인터를 주고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>함수 내용에 포인터가 들어간 연산을 해야했음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 C++에서는 파라미터에서 &amp;변수로 선언해서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그냥 변수처럼 연산하면 됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이분 탐색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이분 탐색은 어떤 범위에 대해 특정 조건을 만족하는 답을 구할 때 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본적으로 함수의 사잇값 정리와 비슷한 내용임.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로직에서 중요한 것은 left와 right의 중간을 mid로 설정하는데</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid의 값에 따라 그 다음 범위를 좁혀야하는데 가능한 경우가 2가지 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>left = mid + 1 혹은 right = mid - 1로하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>left = mid 혹은 right = mid로 하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로직에 맞게 범위를 설정해주면 된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 입국 심사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로직이나 아이디어에는 특별한 것은 없다. 이분 탐색의 기본</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조심해야 할 것은 범위인데 나는 가장 오래걸릴 때를 생각해서 int최대를 넘어가는 것은 생각했다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>따라서 답을 long long으로 내는 것 까지는 생각해서 (실수해서 오래걸렸지만..) 해결했다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 실수하기 쉬운 것은 vector를 돌며 몫을 더해줄 때 이미 넘어버렸다면 거기서 return해버리는 것이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>심사관들이 심사를 너무 잘해서 몫이 너무 커져서 overflow가 나는 경우이다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4013,7 +4122,7 @@
         <xdr:cNvPr id="2" name="직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60D1DBAA-8843-4650-842A-3DC33D4A4487}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ADA3D1B-2FE5-4C85-AC5A-2461A09075BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4084,6 +4193,77 @@
         <xdr:cNvPr id="2" name="직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60D1DBAA-8843-4650-842A-3DC33D4A4487}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143500" y="914400"/>
+          <a:ext cx="2457450" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="6495ED"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54C8D657-6461-49E3-9A69-70B86DB5E0F7}"/>
             </a:ext>
           </a:extLst>
@@ -4135,7 +4315,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4358,6 +4538,77 @@
         <xdr:cNvPr id="2" name="직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D162E98-66D1-4730-A0B0-A1DBF2E669CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143500" y="914400"/>
+          <a:ext cx="2457450" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="6495ED"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA02FD81-C6B1-4FCC-83C4-2DA397C06454}"/>
             </a:ext>
           </a:extLst>
@@ -4475,7 +4726,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4546,7 +4797,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5561,7 +5812,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5632,7 +5883,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5703,7 +5954,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5774,7 +6025,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5959,77 +6210,6 @@
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
             <a:t>.</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="직사각형 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ADA3D1B-2FE5-4C85-AC5A-2461A09075BA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5143500" y="914400"/>
-          <a:ext cx="2457450" cy="723900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="50800">
-          <a:solidFill>
-            <a:srgbClr val="6495ED"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -6304,7 +6484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -6489,6 +6669,520 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27DC9AE-D3F3-4D99-93B4-7F898251C61F}">
+  <dimension ref="A1:X64"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="5.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="50"/>
+      <c r="M2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="13"/>
+    </row>
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="50"/>
+      <c r="H3" s="6"/>
+      <c r="M3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+    </row>
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="50"/>
+      <c r="H4" s="6"/>
+      <c r="M4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+    </row>
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="50"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="50"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="50"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="11" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+    </row>
+    <row r="20" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="T31" s="48"/>
+      <c r="U31" s="48"/>
+      <c r="V31" s="48"/>
+      <c r="W31" s="48"/>
+      <c r="X31" s="48"/>
+    </row>
+    <row r="32" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" s="48"/>
+      <c r="G32" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="T32" s="48"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="48"/>
+      <c r="X32" s="48"/>
+    </row>
+    <row r="33" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="48"/>
+      <c r="U33" s="48"/>
+      <c r="V33" s="48"/>
+      <c r="W33" s="48"/>
+      <c r="X33" s="48"/>
+    </row>
+    <row r="34" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="48"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="48"/>
+      <c r="T34" s="48"/>
+      <c r="U34" s="48"/>
+      <c r="V34" s="48"/>
+      <c r="W34" s="48"/>
+      <c r="X34" s="48"/>
+    </row>
+    <row r="35" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="48"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="48"/>
+      <c r="T35" s="48"/>
+      <c r="U35" s="48"/>
+      <c r="V35" s="48"/>
+      <c r="W35" s="48"/>
+      <c r="X35" s="48"/>
+    </row>
+    <row r="36" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" s="48"/>
+      <c r="G36" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="N36" s="48"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="48"/>
+      <c r="R36" s="48"/>
+      <c r="S36" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="T36" s="48"/>
+      <c r="U36" s="48"/>
+      <c r="V36" s="48"/>
+      <c r="W36" s="48"/>
+      <c r="X36" s="48"/>
+    </row>
+    <row r="37" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
+      <c r="U37" s="48"/>
+      <c r="V37" s="48"/>
+      <c r="W37" s="48"/>
+      <c r="X37" s="48"/>
+    </row>
+    <row r="38" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="48"/>
+      <c r="U38" s="48"/>
+      <c r="V38" s="48"/>
+      <c r="W38" s="48"/>
+      <c r="X38" s="48"/>
+    </row>
+    <row r="39" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="48"/>
+      <c r="Q39" s="48"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="48"/>
+      <c r="T39" s="48"/>
+      <c r="U39" s="48"/>
+      <c r="V39" s="48"/>
+      <c r="W39" s="48"/>
+      <c r="X39" s="48"/>
+    </row>
+    <row r="41" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+    </row>
+    <row r="43" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D43" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D45" s="30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D46" s="30"/>
+      <c r="E46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D47" s="30"/>
+      <c r="E47" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D48" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="13"/>
+    </row>
+    <row r="51" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F51" s="29"/>
+    </row>
+    <row r="52" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+    </row>
+    <row r="54" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D54" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D55" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D56" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+    </row>
+    <row r="59" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="27"/>
+    </row>
+    <row r="60" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D60" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D61" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D62" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D63" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D64" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:A7"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:X31"/>
+    <mergeCell ref="E36:F39"/>
+    <mergeCell ref="G32:L35"/>
+    <mergeCell ref="G36:L39"/>
+    <mergeCell ref="M32:R35"/>
+    <mergeCell ref="S32:X35"/>
+    <mergeCell ref="M36:R39"/>
+    <mergeCell ref="S36:X39"/>
+    <mergeCell ref="E32:F35"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1:A7" location="목차!A1" display="목차!A1" xr:uid="{77CFC214-F479-4364-A6C9-8FA33CBB468B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5CE60D-3F10-4903-B885-6CDA794FB40F}">
   <dimension ref="A1:Q94"/>
   <sheetViews>
@@ -6933,12 +7627,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8709AF78-8857-4867-B1DD-14A6DFC4B711}">
-  <dimension ref="A1:U71"/>
+  <dimension ref="A1:U87"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7285,19 +7979,19 @@
       </c>
       <c r="U64" s="42"/>
     </row>
-    <row r="65" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N65" s="41" t="s">
         <v>104</v>
       </c>
       <c r="U65" s="42"/>
     </row>
-    <row r="66" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N66" s="41" t="s">
         <v>384</v>
       </c>
       <c r="U66" s="42"/>
     </row>
-    <row r="67" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N67" s="21"/>
       <c r="O67" s="38"/>
       <c r="P67" s="38"/>
@@ -7307,24 +8001,93 @@
       <c r="T67" s="38"/>
       <c r="U67" s="39"/>
     </row>
-    <row r="68" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="3" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="69" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="3" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="70" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="3" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="71" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="3" t="s">
         <v>389</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="13"/>
+    </row>
+    <row r="75" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C76" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D77" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="78" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D78" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="80" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C80" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="13"/>
+    </row>
+    <row r="84" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C84" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C85" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C86" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C87" s="3" t="s">
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -7341,7 +8104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3223DD8B-A1C7-45C6-AA2E-038777BE51FF}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
@@ -7438,7 +8201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53359E70-DA5A-4BCE-A940-CF5D8D1B11F9}">
   <dimension ref="A1:V125"/>
   <sheetViews>
@@ -8162,11 +8925,176 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA5DE37-041B-4789-BE71-8503090DF99E}">
+  <dimension ref="A1:Q59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="5.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="50"/>
+      <c r="M2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="13"/>
+    </row>
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="50"/>
+      <c r="H3" s="6"/>
+      <c r="M3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+    </row>
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="50"/>
+      <c r="H4" s="6"/>
+      <c r="M4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+    </row>
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="50"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="50"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="50"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="11" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="30" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="32" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1:A7" location="목차!A1" display="목차!A1" xr:uid="{8677902B-B85D-4299-830A-AD50D626C60C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD41A1E1-188A-4F1E-BBC7-E090551937C4}">
   <dimension ref="A1:U118"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83:G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8676,7 +9604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900018B4-248B-4963-B8EF-D15D1FCEE962}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
@@ -8929,7 +9857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E7D2B5-3732-46A4-9814-CED24E1391C4}">
   <dimension ref="A1:U59"/>
   <sheetViews>
@@ -9225,7 +10153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFF7ADC-9B90-43D2-923E-01DE6568B968}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
@@ -9374,7 +10302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DCCDC4B-10B5-4FB8-B5BB-DE6FFA03CB16}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
@@ -9736,7 +10664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74305CAB-EF31-4180-A9B1-F3B919031D3D}">
   <dimension ref="A1:Q73"/>
   <sheetViews>
@@ -10089,518 +11017,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27DC9AE-D3F3-4D99-93B4-7F898251C61F}">
-  <dimension ref="A1:X64"/>
-  <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="5.625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="M2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="13"/>
-    </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50"/>
-      <c r="H3" s="6"/>
-      <c r="M3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-    </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
-      <c r="H4" s="6"/>
-      <c r="M4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-    </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="50"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="50"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="11" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-    </row>
-    <row r="20" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E31" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="48"/>
-      <c r="S31" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="T31" s="48"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="48"/>
-      <c r="X31" s="48"/>
-    </row>
-    <row r="32" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E32" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="F32" s="48"/>
-      <c r="G32" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="48"/>
-      <c r="S32" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="T32" s="48"/>
-      <c r="U32" s="48"/>
-      <c r="V32" s="48"/>
-      <c r="W32" s="48"/>
-      <c r="X32" s="48"/>
-    </row>
-    <row r="33" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="48"/>
-      <c r="Q33" s="48"/>
-      <c r="R33" s="48"/>
-      <c r="S33" s="48"/>
-      <c r="T33" s="48"/>
-      <c r="U33" s="48"/>
-      <c r="V33" s="48"/>
-      <c r="W33" s="48"/>
-      <c r="X33" s="48"/>
-    </row>
-    <row r="34" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="48"/>
-      <c r="Q34" s="48"/>
-      <c r="R34" s="48"/>
-      <c r="S34" s="48"/>
-      <c r="T34" s="48"/>
-      <c r="U34" s="48"/>
-      <c r="V34" s="48"/>
-      <c r="W34" s="48"/>
-      <c r="X34" s="48"/>
-    </row>
-    <row r="35" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="48"/>
-      <c r="P35" s="48"/>
-      <c r="Q35" s="48"/>
-      <c r="R35" s="48"/>
-      <c r="S35" s="48"/>
-      <c r="T35" s="48"/>
-      <c r="U35" s="48"/>
-      <c r="V35" s="48"/>
-      <c r="W35" s="48"/>
-      <c r="X35" s="48"/>
-    </row>
-    <row r="36" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E36" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="F36" s="48"/>
-      <c r="G36" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="N36" s="48"/>
-      <c r="O36" s="48"/>
-      <c r="P36" s="48"/>
-      <c r="Q36" s="48"/>
-      <c r="R36" s="48"/>
-      <c r="S36" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="T36" s="48"/>
-      <c r="U36" s="48"/>
-      <c r="V36" s="48"/>
-      <c r="W36" s="48"/>
-      <c r="X36" s="48"/>
-    </row>
-    <row r="37" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="48"/>
-      <c r="U37" s="48"/>
-      <c r="V37" s="48"/>
-      <c r="W37" s="48"/>
-      <c r="X37" s="48"/>
-    </row>
-    <row r="38" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="48"/>
-      <c r="Q38" s="48"/>
-      <c r="R38" s="48"/>
-      <c r="S38" s="48"/>
-      <c r="T38" s="48"/>
-      <c r="U38" s="48"/>
-      <c r="V38" s="48"/>
-      <c r="W38" s="48"/>
-      <c r="X38" s="48"/>
-    </row>
-    <row r="39" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="48"/>
-      <c r="Q39" s="48"/>
-      <c r="R39" s="48"/>
-      <c r="S39" s="48"/>
-      <c r="T39" s="48"/>
-      <c r="U39" s="48"/>
-      <c r="V39" s="48"/>
-      <c r="W39" s="48"/>
-      <c r="X39" s="48"/>
-    </row>
-    <row r="41" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-    </row>
-    <row r="43" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="44" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D44" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="45" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D45" s="30" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="46" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D46" s="30"/>
-      <c r="E46" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D47" s="30"/>
-      <c r="E47" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="48" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D48" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="13"/>
-    </row>
-    <row r="51" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F51" s="29"/>
-    </row>
-    <row r="52" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-    </row>
-    <row r="54" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D54" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D55" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D56" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-    </row>
-    <row r="59" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D59" s="27"/>
-    </row>
-    <row r="60" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D60" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D61" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D62" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D63" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D64" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A1:A7"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:X31"/>
-    <mergeCell ref="E36:F39"/>
-    <mergeCell ref="G32:L35"/>
-    <mergeCell ref="G36:L39"/>
-    <mergeCell ref="M32:R35"/>
-    <mergeCell ref="S32:X35"/>
-    <mergeCell ref="M36:R39"/>
-    <mergeCell ref="S36:X39"/>
-    <mergeCell ref="E32:F35"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1:A7" location="목차!A1" display="목차!A1" xr:uid="{77CFC214-F479-4364-A6C9-8FA33CBB468B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>